--- a/practical 1/studentData.xlsx
+++ b/practical 1/studentData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\Python\AdvancePython\pp2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\Python\AdvancePython\pp2024\practical 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A378276E-2B8E-4DDF-B2E8-A1B6D0F74206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145828D-572D-4BCC-BB7F-07D0D5B2C50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4283,7 +4283,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -4463,27 +4463,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4714,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4723,7 +4723,7 @@
     <col min="1" max="1" width="18.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="22" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="16" hidden="1" customWidth="1"/>
     <col min="7" max="14" width="8.7109375" customWidth="1"/>
@@ -4733,11 +4733,11 @@
       <c r="A1" s="17" t="s">
         <v>1409</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>1410</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>1411</v>
       </c>
       <c r="E1" s="17" t="s">
@@ -4755,7 +4755,7 @@
       <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>37694</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -4783,7 +4783,7 @@
       <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>37979</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -4811,7 +4811,7 @@
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>37865</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -4839,7 +4839,7 @@
       <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>37744</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -4867,7 +4867,7 @@
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>37762</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -4895,7 +4895,7 @@
       <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>37860</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -4923,7 +4923,7 @@
       <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>37881</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -4951,7 +4951,7 @@
       <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>37938</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -4979,7 +4979,7 @@
       <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>37893</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -5007,7 +5007,7 @@
       <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>37935</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -5035,7 +5035,7 @@
       <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>35738</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -5063,7 +5063,7 @@
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>37735</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -5091,7 +5091,7 @@
       <c r="C14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="20">
         <v>37632</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -5119,7 +5119,7 @@
       <c r="C15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="20">
         <v>37629</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -5147,7 +5147,7 @@
       <c r="C16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="20">
         <v>37732</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -5175,7 +5175,7 @@
       <c r="C17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <v>37692</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -5203,7 +5203,7 @@
       <c r="C18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <v>37832</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -5231,7 +5231,7 @@
       <c r="C19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>37972</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -5259,7 +5259,7 @@
       <c r="C20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <v>37767</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -5287,7 +5287,7 @@
       <c r="C21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <v>37737</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -5315,7 +5315,7 @@
       <c r="C22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <v>37873</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -5343,7 +5343,7 @@
       <c r="C23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>37839</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -5371,7 +5371,7 @@
       <c r="C24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="20">
         <v>37752</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -5399,7 +5399,7 @@
       <c r="C25" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <v>37915</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -5427,7 +5427,7 @@
       <c r="C26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="20">
         <v>37779</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -5455,7 +5455,7 @@
       <c r="C27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="20">
         <v>37849</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -5483,7 +5483,7 @@
       <c r="C28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="20">
         <v>37951</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -5511,7 +5511,7 @@
       <c r="C29" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="20">
         <v>37947</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -5539,7 +5539,7 @@
       <c r="C30" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="20">
         <v>37715</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -5567,7 +5567,7 @@
       <c r="C31" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="20">
         <v>37661</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -5595,7 +5595,7 @@
       <c r="C32" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="20">
         <v>37732</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -5623,7 +5623,7 @@
       <c r="C33" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="20">
         <v>37871</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -5651,7 +5651,7 @@
       <c r="C34" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="20">
         <v>37666</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -5679,7 +5679,7 @@
       <c r="C35" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="20">
         <v>37920</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -5707,7 +5707,7 @@
       <c r="C36" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="20">
         <v>37882</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -5735,7 +5735,7 @@
       <c r="C37" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="20">
         <v>37799</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -5763,7 +5763,7 @@
       <c r="C38" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="20">
         <v>37921</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -5791,7 +5791,7 @@
       <c r="C39" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="20">
         <v>37832</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -5819,7 +5819,7 @@
       <c r="C40" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="20">
         <v>37639</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -5847,7 +5847,7 @@
       <c r="C41" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="20">
         <v>37942</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -5875,7 +5875,7 @@
       <c r="C42" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="20">
         <v>37739</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -5903,7 +5903,7 @@
       <c r="C43" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="20">
         <v>37904</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -5931,7 +5931,7 @@
       <c r="C44" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="20">
         <v>37950</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -5959,7 +5959,7 @@
       <c r="C45" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="20">
         <v>37630</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -5987,7 +5987,7 @@
       <c r="C46" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="20">
         <v>37871</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -6015,7 +6015,7 @@
       <c r="C47" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="20">
         <v>37986</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -6043,7 +6043,7 @@
       <c r="C48" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="20">
         <v>37872</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -6071,7 +6071,7 @@
       <c r="C49" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="20">
         <v>37719</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -6099,7 +6099,7 @@
       <c r="C50" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="20">
         <v>37931</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -6127,7 +6127,7 @@
       <c r="C51" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="20">
         <v>37762</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -6155,7 +6155,7 @@
       <c r="C52" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="20">
         <v>37926</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -6183,7 +6183,7 @@
       <c r="C53" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="20">
         <v>37679</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -6211,7 +6211,7 @@
       <c r="C54" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="20">
         <v>37743</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -6239,7 +6239,7 @@
       <c r="C55" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="20">
         <v>37884</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -6267,7 +6267,7 @@
       <c r="C56" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="20">
         <v>37857</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -6295,7 +6295,7 @@
       <c r="C57" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="20">
         <v>37817</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -6323,7 +6323,7 @@
       <c r="C58" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="20">
         <v>37938</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -6351,7 +6351,7 @@
       <c r="C59" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="20">
         <v>37642</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -6379,7 +6379,7 @@
       <c r="C60" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="20">
         <v>37697</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -6407,7 +6407,7 @@
       <c r="C61" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="20">
         <v>37936</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -6435,7 +6435,7 @@
       <c r="C62" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="20">
         <v>37960</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -6463,7 +6463,7 @@
       <c r="C63" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="20">
         <v>37877</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -6491,7 +6491,7 @@
       <c r="C64" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="20">
         <v>38185</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -6519,7 +6519,7 @@
       <c r="C65" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="20">
         <v>38048</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -6547,7 +6547,7 @@
       <c r="C66" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="20">
         <v>38132</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -6575,7 +6575,7 @@
       <c r="C67" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="20">
         <v>38329</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -6603,7 +6603,7 @@
       <c r="C68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="20">
         <v>36819</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -6631,7 +6631,7 @@
       <c r="C69" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="20">
         <v>38056</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -6659,7 +6659,7 @@
       <c r="C70" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="20">
         <v>38050</v>
       </c>
       <c r="E70" s="8" t="s">
@@ -6687,7 +6687,7 @@
       <c r="C71" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="20">
         <v>38121</v>
       </c>
       <c r="E71" s="8" t="s">
@@ -6715,7 +6715,7 @@
       <c r="C72" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="20">
         <v>38261</v>
       </c>
       <c r="E72" s="8" t="s">
@@ -6743,7 +6743,7 @@
       <c r="C73" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="20">
         <v>38160</v>
       </c>
       <c r="E73" s="8" t="s">
@@ -6771,7 +6771,7 @@
       <c r="C74" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="20">
         <v>38340</v>
       </c>
       <c r="E74" s="8" t="s">
@@ -6799,7 +6799,7 @@
       <c r="C75" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="20">
         <v>38266</v>
       </c>
       <c r="E75" s="8" t="s">
@@ -6827,7 +6827,7 @@
       <c r="C76" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="20">
         <v>38203</v>
       </c>
       <c r="E76" s="8" t="s">
@@ -6855,7 +6855,7 @@
       <c r="C77" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="20">
         <v>38295</v>
       </c>
       <c r="E77" s="8" t="s">
@@ -6883,7 +6883,7 @@
       <c r="C78" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="20">
         <v>38308</v>
       </c>
       <c r="E78" s="8" t="s">
@@ -6911,7 +6911,7 @@
       <c r="C79" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="20">
         <v>38345</v>
       </c>
       <c r="E79" s="8" t="s">
@@ -6939,7 +6939,7 @@
       <c r="C80" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="20">
         <v>38293</v>
       </c>
       <c r="E80" s="8" t="s">
@@ -6967,7 +6967,7 @@
       <c r="C81" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="20">
         <v>38198</v>
       </c>
       <c r="E81" s="8" t="s">
@@ -6995,7 +6995,7 @@
       <c r="C82" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="20">
         <v>38220</v>
       </c>
       <c r="E82" s="8" t="s">
@@ -7023,7 +7023,7 @@
       <c r="C83" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="20">
         <v>38088</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -7051,7 +7051,7 @@
       <c r="C84" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="20">
         <v>38327</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -7079,7 +7079,7 @@
       <c r="C85" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="20">
         <v>38278</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -7107,7 +7107,7 @@
       <c r="C86" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="20">
         <v>38337</v>
       </c>
       <c r="E86" s="8" t="s">
@@ -7135,7 +7135,7 @@
       <c r="C87" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="20">
         <v>38284</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -7163,7 +7163,7 @@
       <c r="C88" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="20">
         <v>38236</v>
       </c>
       <c r="E88" s="8" t="s">
@@ -7191,7 +7191,7 @@
       <c r="C89" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="20">
         <v>38026</v>
       </c>
       <c r="E89" s="8" t="s">
@@ -7219,7 +7219,7 @@
       <c r="C90" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="20">
         <v>38073</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -7247,7 +7247,7 @@
       <c r="C91" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="20">
         <v>38294</v>
       </c>
       <c r="E91" s="8" t="s">
@@ -7275,7 +7275,7 @@
       <c r="C92" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="20">
         <v>38348</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -7303,7 +7303,7 @@
       <c r="C93" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="20">
         <v>38294</v>
       </c>
       <c r="E93" s="8" t="s">
@@ -7331,7 +7331,7 @@
       <c r="C94" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="20">
         <v>38285</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -7359,7 +7359,7 @@
       <c r="C95" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="20">
         <v>38314</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -7387,7 +7387,7 @@
       <c r="C96" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="20">
         <v>38154</v>
       </c>
       <c r="E96" s="8" t="s">
@@ -7415,7 +7415,7 @@
       <c r="C97" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="20">
         <v>38064</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -7443,7 +7443,7 @@
       <c r="C98" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="20">
         <v>38124</v>
       </c>
       <c r="E98" s="8" t="s">
@@ -7471,7 +7471,7 @@
       <c r="C99" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="20">
         <v>38345</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -7499,7 +7499,7 @@
       <c r="C100" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="20">
         <v>38020</v>
       </c>
       <c r="E100" s="8" t="s">
@@ -7527,7 +7527,7 @@
       <c r="C101" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="20">
         <v>38079</v>
       </c>
       <c r="E101" s="8" t="s">
@@ -7555,7 +7555,7 @@
       <c r="C102" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D102" s="22">
+      <c r="D102" s="20">
         <v>38199</v>
       </c>
       <c r="E102" s="8" t="s">
@@ -7583,7 +7583,7 @@
       <c r="C103" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="20">
         <v>38048</v>
       </c>
       <c r="E103" s="8" t="s">
@@ -7611,7 +7611,7 @@
       <c r="C104" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D104" s="22">
+      <c r="D104" s="20">
         <v>38140</v>
       </c>
       <c r="E104" s="8" t="s">
@@ -7639,7 +7639,7 @@
       <c r="C105" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="20">
         <v>38000</v>
       </c>
       <c r="E105" s="8" t="s">
@@ -7667,7 +7667,7 @@
       <c r="C106" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D106" s="22">
+      <c r="D106" s="20">
         <v>38325</v>
       </c>
       <c r="E106" s="8" t="s">
@@ -7695,7 +7695,7 @@
       <c r="C107" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D107" s="20">
         <v>37761</v>
       </c>
       <c r="E107" s="8" t="s">
@@ -7723,7 +7723,7 @@
       <c r="C108" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D108" s="22">
+      <c r="D108" s="20">
         <v>38134</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -7751,7 +7751,7 @@
       <c r="C109" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="D109" s="22">
+      <c r="D109" s="20">
         <v>38323</v>
       </c>
       <c r="E109" s="8" t="s">
@@ -7779,7 +7779,7 @@
       <c r="C110" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D110" s="22">
+      <c r="D110" s="20">
         <v>38035</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -7807,7 +7807,7 @@
       <c r="C111" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="22">
+      <c r="D111" s="20">
         <v>38343</v>
       </c>
       <c r="E111" s="8" t="s">
@@ -7835,7 +7835,7 @@
       <c r="C112" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D112" s="22">
+      <c r="D112" s="20">
         <v>38351</v>
       </c>
       <c r="E112" s="8" t="s">
@@ -7863,7 +7863,7 @@
       <c r="C113" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="20">
         <v>38031</v>
       </c>
       <c r="E113" s="8" t="s">
@@ -7891,7 +7891,7 @@
       <c r="C114" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="22">
+      <c r="D114" s="20">
         <v>38252</v>
       </c>
       <c r="E114" s="8" t="s">
@@ -7919,7 +7919,7 @@
       <c r="C115" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="20">
         <v>38139</v>
       </c>
       <c r="E115" s="8" t="s">
@@ -7947,7 +7947,7 @@
       <c r="C116" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="20">
         <v>38002</v>
       </c>
       <c r="E116" s="8" t="s">
@@ -7975,7 +7975,7 @@
       <c r="C117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D117" s="22">
+      <c r="D117" s="20">
         <v>37989</v>
       </c>
       <c r="E117" s="8" t="s">
@@ -8003,7 +8003,7 @@
       <c r="C118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="20">
         <v>38089</v>
       </c>
       <c r="E118" s="8" t="s">
@@ -8031,7 +8031,7 @@
       <c r="C119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="20">
         <v>38307</v>
       </c>
       <c r="E119" s="8" t="s">
@@ -8059,7 +8059,7 @@
       <c r="C120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D120" s="22">
+      <c r="D120" s="20">
         <v>38253</v>
       </c>
       <c r="E120" s="8" t="s">
@@ -8087,7 +8087,7 @@
       <c r="C121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D121" s="20">
         <v>37940</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -8115,7 +8115,7 @@
       <c r="C122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D122" s="22">
+      <c r="D122" s="20">
         <v>38295</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -8143,7 +8143,7 @@
       <c r="C123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D123" s="22">
+      <c r="D123" s="20">
         <v>38292</v>
       </c>
       <c r="E123" s="8" t="s">
@@ -8171,7 +8171,7 @@
       <c r="C124" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="D124" s="22">
+      <c r="D124" s="20">
         <v>38328</v>
       </c>
       <c r="E124" s="8" t="s">
@@ -8199,7 +8199,7 @@
       <c r="C125" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="D125" s="22">
+      <c r="D125" s="20">
         <v>38028</v>
       </c>
       <c r="E125" s="8" t="s">
@@ -8227,7 +8227,7 @@
       <c r="C126" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D126" s="22">
+      <c r="D126" s="20">
         <v>38315</v>
       </c>
       <c r="E126" s="8" t="s">
@@ -8255,7 +8255,7 @@
       <c r="C127" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D127" s="22">
+      <c r="D127" s="20">
         <v>38155</v>
       </c>
       <c r="E127" s="8" t="s">
@@ -8283,7 +8283,7 @@
       <c r="C128" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D128" s="22">
+      <c r="D128" s="20">
         <v>37991</v>
       </c>
       <c r="E128" s="8" t="s">
@@ -8311,7 +8311,7 @@
       <c r="C129" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D129" s="22">
+      <c r="D129" s="20">
         <v>38254</v>
       </c>
       <c r="E129" s="8" t="s">
@@ -8339,7 +8339,7 @@
       <c r="C130" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D130" s="22">
+      <c r="D130" s="20">
         <v>38317</v>
       </c>
       <c r="E130" s="8" t="s">
@@ -8367,7 +8367,7 @@
       <c r="C131" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="D131" s="22">
+      <c r="D131" s="20">
         <v>38352</v>
       </c>
       <c r="E131" s="8" t="s">
@@ -8395,7 +8395,7 @@
       <c r="C132" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D132" s="22">
+      <c r="D132" s="20">
         <v>38279</v>
       </c>
       <c r="E132" s="8" t="s">
@@ -8423,7 +8423,7 @@
       <c r="C133" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D133" s="22">
+      <c r="D133" s="20">
         <v>37989</v>
       </c>
       <c r="E133" s="8" t="s">
@@ -8451,7 +8451,7 @@
       <c r="C134" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D134" s="22">
+      <c r="D134" s="20">
         <v>37896</v>
       </c>
       <c r="E134" s="8" t="s">
@@ -8479,7 +8479,7 @@
       <c r="C135" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D135" s="22">
+      <c r="D135" s="20">
         <v>38265</v>
       </c>
       <c r="E135" s="8" t="s">
@@ -8507,7 +8507,7 @@
       <c r="C136" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D136" s="22">
+      <c r="D136" s="20">
         <v>38173</v>
       </c>
       <c r="E136" s="8" t="s">
@@ -8535,7 +8535,7 @@
       <c r="C137" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D137" s="22">
+      <c r="D137" s="20">
         <v>38266</v>
       </c>
       <c r="E137" s="8" t="s">
@@ -8563,7 +8563,7 @@
       <c r="C138" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D138" s="22">
+      <c r="D138" s="20">
         <v>38283</v>
       </c>
       <c r="E138" s="8" t="s">
@@ -8591,7 +8591,7 @@
       <c r="C139" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D139" s="22">
+      <c r="D139" s="20">
         <v>38093</v>
       </c>
       <c r="E139" s="8" t="s">
@@ -8619,7 +8619,7 @@
       <c r="C140" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D140" s="22">
+      <c r="D140" s="20">
         <v>38337</v>
       </c>
       <c r="E140" s="8" t="s">
@@ -8647,7 +8647,7 @@
       <c r="C141" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D141" s="22">
+      <c r="D141" s="20">
         <v>38058</v>
       </c>
       <c r="E141" s="8" t="s">
@@ -8675,7 +8675,7 @@
       <c r="C142" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D142" s="22">
+      <c r="D142" s="20">
         <v>38028</v>
       </c>
       <c r="E142" s="8" t="s">
@@ -8703,7 +8703,7 @@
       <c r="C143" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D143" s="22">
+      <c r="D143" s="20">
         <v>38162</v>
       </c>
       <c r="E143" s="8" t="s">
@@ -8731,7 +8731,7 @@
       <c r="C144" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D144" s="22">
+      <c r="D144" s="20">
         <v>38246</v>
       </c>
       <c r="E144" s="8" t="s">
@@ -8759,7 +8759,7 @@
       <c r="C145" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D145" s="22">
+      <c r="D145" s="20">
         <v>38202</v>
       </c>
       <c r="E145" s="8" t="s">
@@ -8787,7 +8787,7 @@
       <c r="C146" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D146" s="20">
         <v>38000</v>
       </c>
       <c r="E146" s="8" t="s">
@@ -8815,7 +8815,7 @@
       <c r="C147" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="20">
         <v>38235</v>
       </c>
       <c r="E147" s="8" t="s">
@@ -8843,7 +8843,7 @@
       <c r="C148" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="22">
+      <c r="D148" s="20">
         <v>38293</v>
       </c>
       <c r="E148" s="8" t="s">
@@ -8871,7 +8871,7 @@
       <c r="C149" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="D149" s="22">
+      <c r="D149" s="20">
         <v>38260</v>
       </c>
       <c r="E149" s="8" t="s">
@@ -8899,7 +8899,7 @@
       <c r="C150" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="D150" s="22">
+      <c r="D150" s="20">
         <v>38224</v>
       </c>
       <c r="E150" s="8" t="s">
@@ -8927,7 +8927,7 @@
       <c r="C151" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D151" s="22">
+      <c r="D151" s="20">
         <v>38095</v>
       </c>
       <c r="E151" s="8" t="s">
@@ -8955,7 +8955,7 @@
       <c r="C152" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D152" s="22">
+      <c r="D152" s="20">
         <v>38039</v>
       </c>
       <c r="E152" s="8" t="s">
@@ -8983,7 +8983,7 @@
       <c r="C153" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D153" s="22">
+      <c r="D153" s="20">
         <v>38045</v>
       </c>
       <c r="E153" s="8" t="s">
@@ -9011,7 +9011,7 @@
       <c r="C154" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D154" s="22">
+      <c r="D154" s="20">
         <v>38158</v>
       </c>
       <c r="E154" s="8" t="s">
@@ -9039,7 +9039,7 @@
       <c r="C155" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D155" s="22">
+      <c r="D155" s="20">
         <v>38088</v>
       </c>
       <c r="E155" s="8" t="s">
@@ -9067,7 +9067,7 @@
       <c r="C156" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D156" s="22">
+      <c r="D156" s="20">
         <v>38256</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -9095,7 +9095,7 @@
       <c r="C157" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D157" s="22">
+      <c r="D157" s="20">
         <v>38102</v>
       </c>
       <c r="E157" s="8" t="s">
@@ -9123,7 +9123,7 @@
       <c r="C158" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D158" s="22">
+      <c r="D158" s="20">
         <v>38217</v>
       </c>
       <c r="E158" s="8" t="s">
@@ -9151,7 +9151,7 @@
       <c r="C159" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="22">
+      <c r="D159" s="20">
         <v>38290</v>
       </c>
       <c r="E159" s="8" t="s">
@@ -9179,7 +9179,7 @@
       <c r="C160" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D160" s="22">
+      <c r="D160" s="20">
         <v>38210</v>
       </c>
       <c r="E160" s="8" t="s">
@@ -9207,7 +9207,7 @@
       <c r="C161" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D161" s="22">
+      <c r="D161" s="20">
         <v>38254</v>
       </c>
       <c r="E161" s="8" t="s">
@@ -9235,7 +9235,7 @@
       <c r="C162" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="D162" s="22">
+      <c r="D162" s="20">
         <v>37998</v>
       </c>
       <c r="E162" s="8" t="s">
@@ -9263,7 +9263,7 @@
       <c r="C163" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="D163" s="22">
+      <c r="D163" s="20">
         <v>38195</v>
       </c>
       <c r="E163" s="8" t="s">
@@ -9291,7 +9291,7 @@
       <c r="C164" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D164" s="22">
+      <c r="D164" s="20">
         <v>38273</v>
       </c>
       <c r="E164" s="8" t="s">
@@ -9319,7 +9319,7 @@
       <c r="C165" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D165" s="22">
+      <c r="D165" s="20">
         <v>38286</v>
       </c>
       <c r="E165" s="8" t="s">
@@ -9347,7 +9347,7 @@
       <c r="C166" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D166" s="22">
+      <c r="D166" s="20">
         <v>38120</v>
       </c>
       <c r="E166" s="8" t="s">
@@ -9375,7 +9375,7 @@
       <c r="C167" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D167" s="22">
+      <c r="D167" s="20">
         <v>38241</v>
       </c>
       <c r="E167" s="8" t="s">
@@ -9403,7 +9403,7 @@
       <c r="C168" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="D168" s="22">
+      <c r="D168" s="20">
         <v>38245</v>
       </c>
       <c r="E168" s="8" t="s">
@@ -9431,7 +9431,7 @@
       <c r="C169" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="D169" s="22">
+      <c r="D169" s="20">
         <v>38291</v>
       </c>
       <c r="E169" s="8" t="s">
@@ -9459,7 +9459,7 @@
       <c r="C170" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="D170" s="22">
+      <c r="D170" s="20">
         <v>38247</v>
       </c>
       <c r="E170" s="8" t="s">
@@ -9487,7 +9487,7 @@
       <c r="C171" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="D171" s="22">
+      <c r="D171" s="20">
         <v>38022</v>
       </c>
       <c r="E171" s="8" t="s">
@@ -9515,7 +9515,7 @@
       <c r="C172" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="D172" s="22">
+      <c r="D172" s="20">
         <v>38150</v>
       </c>
       <c r="E172" s="8" t="s">
@@ -9543,7 +9543,7 @@
       <c r="C173" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D173" s="22">
+      <c r="D173" s="20">
         <v>38278</v>
       </c>
       <c r="E173" s="8" t="s">
@@ -9571,7 +9571,7 @@
       <c r="C174" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D174" s="22">
+      <c r="D174" s="20">
         <v>38175</v>
       </c>
       <c r="E174" s="8" t="s">
@@ -9599,7 +9599,7 @@
       <c r="C175" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D175" s="22">
+      <c r="D175" s="20">
         <v>38024</v>
       </c>
       <c r="E175" s="8" t="s">
@@ -9627,7 +9627,7 @@
       <c r="C176" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D176" s="22">
+      <c r="D176" s="20">
         <v>38086</v>
       </c>
       <c r="E176" s="8" t="s">
@@ -9655,7 +9655,7 @@
       <c r="C177" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D177" s="22">
+      <c r="D177" s="20">
         <v>38007</v>
       </c>
       <c r="E177" s="8" t="s">
@@ -9683,7 +9683,7 @@
       <c r="C178" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="D178" s="22">
+      <c r="D178" s="20">
         <v>38281</v>
       </c>
       <c r="E178" s="8" t="s">
@@ -9711,7 +9711,7 @@
       <c r="C179" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="D179" s="22">
+      <c r="D179" s="20">
         <v>38152</v>
       </c>
       <c r="E179" s="8" t="s">
@@ -9739,7 +9739,7 @@
       <c r="C180" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D180" s="22">
+      <c r="D180" s="20">
         <v>37990</v>
       </c>
       <c r="E180" s="8" t="s">
@@ -9767,7 +9767,7 @@
       <c r="C181" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D181" s="22">
+      <c r="D181" s="20">
         <v>38307</v>
       </c>
       <c r="E181" s="8" t="s">
@@ -9795,7 +9795,7 @@
       <c r="C182" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D182" s="22">
+      <c r="D182" s="20">
         <v>38203</v>
       </c>
       <c r="E182" s="8" t="s">
@@ -9823,7 +9823,7 @@
       <c r="C183" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D183" s="22">
+      <c r="D183" s="20">
         <v>38187</v>
       </c>
       <c r="E183" s="8" t="s">
@@ -9851,7 +9851,7 @@
       <c r="C184" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D184" s="22">
+      <c r="D184" s="20">
         <v>38216</v>
       </c>
       <c r="E184" s="8" t="s">
@@ -9879,7 +9879,7 @@
       <c r="C185" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D185" s="22">
+      <c r="D185" s="20">
         <v>38288</v>
       </c>
       <c r="E185" s="8" t="s">
@@ -9907,7 +9907,7 @@
       <c r="C186" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D186" s="22">
+      <c r="D186" s="20">
         <v>37998</v>
       </c>
       <c r="E186" s="8" t="s">
@@ -9935,7 +9935,7 @@
       <c r="C187" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D187" s="22">
+      <c r="D187" s="20">
         <v>38167</v>
       </c>
       <c r="E187" s="8" t="s">
@@ -9963,7 +9963,7 @@
       <c r="C188" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D188" s="22">
+      <c r="D188" s="20">
         <v>38308</v>
       </c>
       <c r="E188" s="8" t="s">
@@ -9991,7 +9991,7 @@
       <c r="C189" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D189" s="22">
+      <c r="D189" s="20">
         <v>38003</v>
       </c>
       <c r="E189" s="8" t="s">
@@ -10019,7 +10019,7 @@
       <c r="C190" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D190" s="22">
+      <c r="D190" s="20">
         <v>38095</v>
       </c>
       <c r="E190" s="8" t="s">
@@ -10047,7 +10047,7 @@
       <c r="C191" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D191" s="22">
+      <c r="D191" s="20">
         <v>38247</v>
       </c>
       <c r="E191" s="8" t="s">
@@ -10075,7 +10075,7 @@
       <c r="C192" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D192" s="22" t="s">
+      <c r="D192" s="20" t="s">
         <v>593</v>
       </c>
       <c r="E192" s="8" t="s">
@@ -10101,7 +10101,7 @@
       <c r="C193" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D193" s="22" t="s">
+      <c r="D193" s="20" t="s">
         <v>596</v>
       </c>
       <c r="E193" s="8" t="s">
@@ -10127,7 +10127,7 @@
       <c r="C194" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D194" s="22" t="s">
+      <c r="D194" s="20" t="s">
         <v>599</v>
       </c>
       <c r="E194" s="8" t="s">
@@ -10153,7 +10153,7 @@
       <c r="C195" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="D195" s="20" t="s">
         <v>601</v>
       </c>
       <c r="E195" s="8" t="s">
@@ -10179,7 +10179,7 @@
       <c r="C196" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D196" s="22" t="s">
+      <c r="D196" s="20" t="s">
         <v>603</v>
       </c>
       <c r="E196" s="8" t="s">
@@ -10205,7 +10205,7 @@
       <c r="C197" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D197" s="22">
+      <c r="D197" s="20">
         <v>38287</v>
       </c>
       <c r="E197" s="8" t="s">
@@ -10233,7 +10233,7 @@
       <c r="C198" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D198" s="22">
+      <c r="D198" s="20">
         <v>38135</v>
       </c>
       <c r="E198" s="8" t="s">
@@ -10261,7 +10261,7 @@
       <c r="C199" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D199" s="22">
+      <c r="D199" s="20">
         <v>38289</v>
       </c>
       <c r="E199" s="8" t="s">
@@ -10289,7 +10289,7 @@
       <c r="C200" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D200" s="22">
+      <c r="D200" s="20">
         <v>38075</v>
       </c>
       <c r="E200" s="8" t="s">
@@ -10317,7 +10317,7 @@
       <c r="C201" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D201" s="22">
+      <c r="D201" s="20">
         <v>38254</v>
       </c>
       <c r="E201" s="8" t="s">
@@ -10345,7 +10345,7 @@
       <c r="C202" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D202" s="22">
+      <c r="D202" s="20">
         <v>38004</v>
       </c>
       <c r="E202" s="8" t="s">
@@ -10373,7 +10373,7 @@
       <c r="C203" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D203" s="22">
+      <c r="D203" s="20">
         <v>37590</v>
       </c>
       <c r="E203" s="8" t="s">
@@ -10401,7 +10401,7 @@
       <c r="C204" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D204" s="22">
+      <c r="D204" s="20">
         <v>38015</v>
       </c>
       <c r="E204" s="8" t="s">
@@ -10429,7 +10429,7 @@
       <c r="C205" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D205" s="22">
+      <c r="D205" s="20">
         <v>38033</v>
       </c>
       <c r="E205" s="8" t="s">
@@ -10457,7 +10457,7 @@
       <c r="C206" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D206" s="22">
+      <c r="D206" s="20">
         <v>38222</v>
       </c>
       <c r="E206" s="8" t="s">
@@ -10485,7 +10485,7 @@
       <c r="C207" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D207" s="22">
+      <c r="D207" s="20">
         <v>38058</v>
       </c>
       <c r="E207" s="8" t="s">
@@ -10513,7 +10513,7 @@
       <c r="C208" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D208" s="22">
+      <c r="D208" s="20">
         <v>38259</v>
       </c>
       <c r="E208" s="8" t="s">
@@ -10541,7 +10541,7 @@
       <c r="C209" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D209" s="22">
+      <c r="D209" s="20">
         <v>38200</v>
       </c>
       <c r="E209" s="8" t="s">
@@ -10569,7 +10569,7 @@
       <c r="C210" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="D210" s="22">
+      <c r="D210" s="20">
         <v>38177</v>
       </c>
       <c r="E210" s="8" t="s">
@@ -10597,7 +10597,7 @@
       <c r="C211" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="D211" s="22">
+      <c r="D211" s="20">
         <v>38002</v>
       </c>
       <c r="E211" s="8" t="s">
@@ -10625,7 +10625,7 @@
       <c r="C212" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="D212" s="22">
+      <c r="D212" s="20">
         <v>38248</v>
       </c>
       <c r="E212" s="8" t="s">
@@ -10653,7 +10653,7 @@
       <c r="C213" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="D213" s="22">
+      <c r="D213" s="20">
         <v>38161</v>
       </c>
       <c r="E213" s="8" t="s">
@@ -10681,7 +10681,7 @@
       <c r="C214" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="D214" s="22">
+      <c r="D214" s="20">
         <v>38331</v>
       </c>
       <c r="E214" s="8" t="s">
@@ -10709,7 +10709,7 @@
       <c r="C215" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="D215" s="22">
+      <c r="D215" s="20">
         <v>38281</v>
       </c>
       <c r="E215" s="8" t="s">
@@ -10737,7 +10737,7 @@
       <c r="C216" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="D216" s="22">
+      <c r="D216" s="20">
         <v>38034</v>
       </c>
       <c r="E216" s="8" t="s">
@@ -10765,7 +10765,7 @@
       <c r="C217" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="D217" s="22">
+      <c r="D217" s="20">
         <v>38185</v>
       </c>
       <c r="E217" s="8" t="s">
@@ -10793,7 +10793,7 @@
       <c r="C218" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="D218" s="22">
+      <c r="D218" s="20">
         <v>38240</v>
       </c>
       <c r="E218" s="8" t="s">
@@ -10821,7 +10821,7 @@
       <c r="C219" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="D219" s="22">
+      <c r="D219" s="20">
         <v>38088</v>
       </c>
       <c r="E219" s="8" t="s">
@@ -10849,7 +10849,7 @@
       <c r="C220" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="D220" s="22">
+      <c r="D220" s="20">
         <v>38187</v>
       </c>
       <c r="E220" s="8" t="s">
@@ -10877,7 +10877,7 @@
       <c r="C221" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="D221" s="22">
+      <c r="D221" s="20">
         <v>38349</v>
       </c>
       <c r="E221" s="8" t="s">
@@ -10905,7 +10905,7 @@
       <c r="C222" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D222" s="22">
+      <c r="D222" s="20">
         <v>37990</v>
       </c>
       <c r="E222" s="8" t="s">
@@ -10933,7 +10933,7 @@
       <c r="C223" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D223" s="22">
+      <c r="D223" s="20">
         <v>38322</v>
       </c>
       <c r="E223" s="8" t="s">
@@ -10961,7 +10961,7 @@
       <c r="C224" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D224" s="22">
+      <c r="D224" s="20">
         <v>38105</v>
       </c>
       <c r="E224" s="8" t="s">
@@ -10989,7 +10989,7 @@
       <c r="C225" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D225" s="22">
+      <c r="D225" s="20">
         <v>37995</v>
       </c>
       <c r="E225" s="8" t="s">
@@ -11017,7 +11017,7 @@
       <c r="C226" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D226" s="22">
+      <c r="D226" s="20">
         <v>38251</v>
       </c>
       <c r="E226" s="8" t="s">
@@ -11045,7 +11045,7 @@
       <c r="C227" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="D227" s="22">
+      <c r="D227" s="20">
         <v>38256</v>
       </c>
       <c r="E227" s="8" t="s">
@@ -11073,7 +11073,7 @@
       <c r="C228" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="D228" s="22">
+      <c r="D228" s="20">
         <v>38057</v>
       </c>
       <c r="E228" s="8" t="s">
@@ -11101,7 +11101,7 @@
       <c r="C229" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="D229" s="22">
+      <c r="D229" s="20">
         <v>38192</v>
       </c>
       <c r="E229" s="8" t="s">
@@ -11129,7 +11129,7 @@
       <c r="C230" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="D230" s="22">
+      <c r="D230" s="20">
         <v>38165</v>
       </c>
       <c r="E230" s="8" t="s">
@@ -11157,7 +11157,7 @@
       <c r="C231" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D231" s="22">
+      <c r="D231" s="20">
         <v>38001</v>
       </c>
       <c r="E231" s="8" t="s">
@@ -11185,7 +11185,7 @@
       <c r="C232" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D232" s="22">
+      <c r="D232" s="20">
         <v>38233</v>
       </c>
       <c r="E232" s="8" t="s">
@@ -11213,7 +11213,7 @@
       <c r="C233" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D233" s="22">
+      <c r="D233" s="20">
         <v>38134</v>
       </c>
       <c r="E233" s="8" t="s">
@@ -11241,7 +11241,7 @@
       <c r="C234" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D234" s="22">
+      <c r="D234" s="20">
         <v>38282</v>
       </c>
       <c r="E234" s="8" t="s">
@@ -11269,7 +11269,7 @@
       <c r="C235" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D235" s="22">
+      <c r="D235" s="20">
         <v>38314</v>
       </c>
       <c r="E235" s="8" t="s">
@@ -11297,7 +11297,7 @@
       <c r="C236" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D236" s="22">
+      <c r="D236" s="20">
         <v>38272</v>
       </c>
       <c r="E236" s="8" t="s">
@@ -11325,7 +11325,7 @@
       <c r="C237" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D237" s="23">
+      <c r="D237" s="21">
         <v>38031</v>
       </c>
       <c r="E237" s="9" t="s">
@@ -11353,7 +11353,7 @@
       <c r="C238" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="D238" s="23">
+      <c r="D238" s="21">
         <v>38030</v>
       </c>
       <c r="E238" s="9" t="s">
@@ -11381,7 +11381,7 @@
       <c r="C239" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="D239" s="23">
+      <c r="D239" s="21">
         <v>38025</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -11409,7 +11409,7 @@
       <c r="C240" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="D240" s="23">
+      <c r="D240" s="21">
         <v>38231</v>
       </c>
       <c r="E240" s="9" t="s">
@@ -11437,7 +11437,7 @@
       <c r="C241" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D241" s="23">
+      <c r="D241" s="21">
         <v>38070</v>
       </c>
       <c r="E241" s="9" t="s">
@@ -11465,7 +11465,7 @@
       <c r="C242" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D242" s="23">
+      <c r="D242" s="21">
         <v>37728</v>
       </c>
       <c r="E242" s="9" t="s">
@@ -11493,7 +11493,7 @@
       <c r="C243" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D243" s="23">
+      <c r="D243" s="21">
         <v>38012</v>
       </c>
       <c r="E243" s="9" t="s">
@@ -11521,7 +11521,7 @@
       <c r="C244" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D244" s="23">
+      <c r="D244" s="21">
         <v>38283</v>
       </c>
       <c r="E244" s="9" t="s">
@@ -11549,7 +11549,7 @@
       <c r="C245" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="D245" s="23">
+      <c r="D245" s="21">
         <v>38132</v>
       </c>
       <c r="E245" s="9" t="s">
@@ -11577,7 +11577,7 @@
       <c r="C246" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="D246" s="23">
+      <c r="D246" s="21">
         <v>38116</v>
       </c>
       <c r="E246" s="9" t="s">
@@ -11605,7 +11605,7 @@
       <c r="C247" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="D247" s="23">
+      <c r="D247" s="21">
         <v>38260</v>
       </c>
       <c r="E247" s="9" t="s">
@@ -11633,7 +11633,7 @@
       <c r="C248" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="D248" s="23">
+      <c r="D248" s="21">
         <v>38065</v>
       </c>
       <c r="E248" s="9" t="s">
@@ -11661,7 +11661,7 @@
       <c r="C249" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="D249" s="23">
+      <c r="D249" s="21">
         <v>38225</v>
       </c>
       <c r="E249" s="9" t="s">
@@ -11689,7 +11689,7 @@
       <c r="C250" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="D250" s="23">
+      <c r="D250" s="21">
         <v>38126</v>
       </c>
       <c r="E250" s="9" t="s">
@@ -11717,7 +11717,7 @@
       <c r="C251" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="D251" s="23">
+      <c r="D251" s="21">
         <v>38188</v>
       </c>
       <c r="E251" s="9" t="s">
@@ -11745,7 +11745,7 @@
       <c r="C252" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="D252" s="23">
+      <c r="D252" s="21">
         <v>38055</v>
       </c>
       <c r="E252" s="9" t="s">
@@ -11773,7 +11773,7 @@
       <c r="C253" s="10" t="s">
         <v>770</v>
       </c>
-      <c r="D253" s="23">
+      <c r="D253" s="21">
         <v>38093</v>
       </c>
       <c r="E253" s="9" t="s">
@@ -11801,7 +11801,7 @@
       <c r="C254" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="D254" s="23">
+      <c r="D254" s="21">
         <v>38218</v>
       </c>
       <c r="E254" s="9" t="s">
@@ -11829,7 +11829,7 @@
       <c r="C255" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D255" s="23">
+      <c r="D255" s="21">
         <v>38063</v>
       </c>
       <c r="E255" s="9" t="s">
@@ -11857,7 +11857,7 @@
       <c r="C256" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D256" s="23">
+      <c r="D256" s="21">
         <v>38264</v>
       </c>
       <c r="E256" s="9" t="s">
@@ -11885,7 +11885,7 @@
       <c r="C257" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D257" s="23">
+      <c r="D257" s="21">
         <v>38044</v>
       </c>
       <c r="E257" s="9" t="s">
@@ -11913,7 +11913,7 @@
       <c r="C258" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D258" s="23">
+      <c r="D258" s="21">
         <v>38313</v>
       </c>
       <c r="E258" s="9" t="s">
@@ -11941,7 +11941,7 @@
       <c r="C259" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D259" s="23">
+      <c r="D259" s="21">
         <v>38240</v>
       </c>
       <c r="E259" s="9" t="s">
@@ -11969,7 +11969,7 @@
       <c r="C260" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D260" s="23">
+      <c r="D260" s="21">
         <v>38295</v>
       </c>
       <c r="E260" s="9" t="s">
@@ -11997,7 +11997,7 @@
       <c r="C261" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D261" s="23">
+      <c r="D261" s="21">
         <v>38302</v>
       </c>
       <c r="E261" s="9" t="s">
@@ -12025,7 +12025,7 @@
       <c r="C262" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D262" s="23" t="s">
+      <c r="D262" s="21" t="s">
         <v>798</v>
       </c>
       <c r="E262" s="9" t="s">
@@ -12051,7 +12051,7 @@
       <c r="C263" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D263" s="23" t="s">
+      <c r="D263" s="21" t="s">
         <v>801</v>
       </c>
       <c r="E263" s="9" t="s">
@@ -12077,7 +12077,7 @@
       <c r="C264" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D264" s="23" t="s">
+      <c r="D264" s="21" t="s">
         <v>804</v>
       </c>
       <c r="E264" s="9" t="s">
@@ -12103,7 +12103,7 @@
       <c r="C265" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D265" s="23" t="s">
+      <c r="D265" s="21" t="s">
         <v>806</v>
       </c>
       <c r="E265" s="9" t="s">
@@ -12129,7 +12129,7 @@
       <c r="C266" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="23">
+      <c r="D266" s="21">
         <v>38296</v>
       </c>
       <c r="E266" s="9" t="s">
@@ -12155,7 +12155,7 @@
       <c r="C267" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D267" s="23">
+      <c r="D267" s="21">
         <v>38325</v>
       </c>
       <c r="E267" s="9" t="s">
@@ -12183,7 +12183,7 @@
       <c r="C268" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D268" s="23">
+      <c r="D268" s="21">
         <v>38066</v>
       </c>
       <c r="E268" s="9" t="s">
@@ -12211,7 +12211,7 @@
       <c r="C269" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D269" s="23">
+      <c r="D269" s="21">
         <v>38205</v>
       </c>
       <c r="E269" s="9" t="s">
@@ -12239,7 +12239,7 @@
       <c r="C270" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D270" s="23">
+      <c r="D270" s="21">
         <v>38040</v>
       </c>
       <c r="E270" s="9" t="s">
@@ -12267,7 +12267,7 @@
       <c r="C271" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D271" s="23">
+      <c r="D271" s="21">
         <v>38009</v>
       </c>
       <c r="E271" s="9" t="s">
@@ -12295,7 +12295,7 @@
       <c r="C272" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="D272" s="23">
+      <c r="D272" s="21">
         <v>38248</v>
       </c>
       <c r="E272" s="9" t="s">
@@ -12323,7 +12323,7 @@
       <c r="C273" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D273" s="23">
+      <c r="D273" s="21">
         <v>38047</v>
       </c>
       <c r="E273" s="9" t="s">
@@ -12351,7 +12351,7 @@
       <c r="C274" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D274" s="23">
+      <c r="D274" s="21">
         <v>38252</v>
       </c>
       <c r="E274" s="9" t="s">
@@ -12379,7 +12379,7 @@
       <c r="C275" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D275" s="23">
+      <c r="D275" s="21">
         <v>38332</v>
       </c>
       <c r="E275" s="9" t="s">
@@ -12407,7 +12407,7 @@
       <c r="C276" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D276" s="23">
+      <c r="D276" s="21">
         <v>38140</v>
       </c>
       <c r="E276" s="9" t="s">
@@ -12435,7 +12435,7 @@
       <c r="C277" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="D277" s="23">
+      <c r="D277" s="21">
         <v>38182</v>
       </c>
       <c r="E277" s="9" t="s">
@@ -12463,7 +12463,7 @@
       <c r="C278" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="D278" s="23">
+      <c r="D278" s="21">
         <v>38226</v>
       </c>
       <c r="E278" s="9" t="s">
@@ -12491,7 +12491,7 @@
       <c r="C279" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D279" s="23">
+      <c r="D279" s="21">
         <v>38308</v>
       </c>
       <c r="E279" s="9" t="s">
@@ -12519,7 +12519,7 @@
       <c r="C280" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D280" s="23">
+      <c r="D280" s="21">
         <v>38005</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -12547,7 +12547,7 @@
       <c r="C281" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D281" s="23">
+      <c r="D281" s="21">
         <v>38234</v>
       </c>
       <c r="E281" s="9" t="s">
@@ -12575,7 +12575,7 @@
       <c r="C282" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="D282" s="23">
+      <c r="D282" s="21">
         <v>38235</v>
       </c>
       <c r="E282" s="9" t="s">
@@ -12603,7 +12603,7 @@
       <c r="C283" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="D283" s="23">
+      <c r="D283" s="21">
         <v>37852</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -12631,7 +12631,7 @@
       <c r="C284" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="D284" s="23">
+      <c r="D284" s="21">
         <v>37499</v>
       </c>
       <c r="E284" s="9" t="s">
@@ -12659,7 +12659,7 @@
       <c r="C285" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D285" s="23">
+      <c r="D285" s="21">
         <v>37937</v>
       </c>
       <c r="E285" s="9" t="s">
@@ -12687,7 +12687,7 @@
       <c r="C286" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="D286" s="23">
+      <c r="D286" s="21">
         <v>36899</v>
       </c>
       <c r="E286" s="9" t="s">
@@ -12715,7 +12715,7 @@
       <c r="C287" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="D287" s="23">
+      <c r="D287" s="21">
         <v>37724</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -12743,7 +12743,7 @@
       <c r="C288" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="D288" s="23">
+      <c r="D288" s="21">
         <v>38243</v>
       </c>
       <c r="E288" s="9" t="s">
@@ -12771,7 +12771,7 @@
       <c r="C289" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="D289" s="23">
+      <c r="D289" s="21">
         <v>38310</v>
       </c>
       <c r="E289" s="9" t="s">
@@ -12799,7 +12799,7 @@
       <c r="C290" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="D290" s="23">
+      <c r="D290" s="21">
         <v>37996</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -12827,7 +12827,7 @@
       <c r="C291" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D291" s="23">
+      <c r="D291" s="21">
         <v>38264</v>
       </c>
       <c r="E291" s="9" t="s">
@@ -12855,7 +12855,7 @@
       <c r="C292" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="D292" s="23">
+      <c r="D292" s="21">
         <v>37360</v>
       </c>
       <c r="E292" s="9" t="s">
@@ -12883,7 +12883,7 @@
       <c r="C293" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="D293" s="23">
+      <c r="D293" s="21">
         <v>37957</v>
       </c>
       <c r="E293" s="9" t="s">
@@ -12911,7 +12911,7 @@
       <c r="C294" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="D294" s="23">
+      <c r="D294" s="21">
         <v>37598</v>
       </c>
       <c r="E294" s="9" t="s">
@@ -12939,7 +12939,7 @@
       <c r="C295" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D295" s="23" t="s">
+      <c r="D295" s="21" t="s">
         <v>900</v>
       </c>
       <c r="E295" s="9" t="s">
@@ -12967,7 +12967,7 @@
       <c r="C296" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D296" s="23" t="s">
+      <c r="D296" s="21" t="s">
         <v>904</v>
       </c>
       <c r="E296" s="9" t="s">
@@ -12995,7 +12995,7 @@
       <c r="C297" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D297" s="23" t="s">
+      <c r="D297" s="21" t="s">
         <v>907</v>
       </c>
       <c r="E297" s="9" t="s">
@@ -13021,7 +13021,7 @@
       <c r="C298" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D298" s="23" t="s">
+      <c r="D298" s="21" t="s">
         <v>910</v>
       </c>
       <c r="E298" s="9" t="s">
@@ -13047,7 +13047,7 @@
       <c r="C299" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D299" s="23">
+      <c r="D299" s="21">
         <v>38116</v>
       </c>
       <c r="E299" s="9" t="s">
@@ -13073,7 +13073,7 @@
       <c r="C300" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="D300" s="23" t="s">
+      <c r="D300" s="21" t="s">
         <v>916</v>
       </c>
       <c r="E300" s="9" t="s">
@@ -13099,7 +13099,7 @@
       <c r="C301" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D301" s="23" t="s">
+      <c r="D301" s="21" t="s">
         <v>919</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -13125,7 +13125,7 @@
       <c r="C302" s="10" t="s">
         <v>922</v>
       </c>
-      <c r="D302" s="23" t="s">
+      <c r="D302" s="21" t="s">
         <v>923</v>
       </c>
       <c r="E302" s="10" t="s">
@@ -13151,7 +13151,7 @@
       <c r="C303" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="D303" s="23" t="s">
+      <c r="D303" s="21" t="s">
         <v>927</v>
       </c>
       <c r="E303" s="10" t="s">
@@ -13177,7 +13177,7 @@
       <c r="C304" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="D304" s="23" t="s">
+      <c r="D304" s="21" t="s">
         <v>930</v>
       </c>
       <c r="E304" s="10" t="s">
@@ -13203,7 +13203,7 @@
       <c r="C305" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D305" s="23">
+      <c r="D305" s="21">
         <v>38049</v>
       </c>
       <c r="E305" s="9" t="s">
@@ -13229,7 +13229,7 @@
       <c r="C306" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D306" s="23">
+      <c r="D306" s="21">
         <v>37892</v>
       </c>
       <c r="E306" s="9" t="s">
@@ -13257,7 +13257,7 @@
       <c r="C307" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D307" s="23">
+      <c r="D307" s="21">
         <v>37961</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -13285,7 +13285,7 @@
       <c r="C308" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D308" s="23">
+      <c r="D308" s="21">
         <v>37631</v>
       </c>
       <c r="E308" s="9" t="s">
@@ -13313,7 +13313,7 @@
       <c r="C309" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D309" s="23">
+      <c r="D309" s="21">
         <v>37844</v>
       </c>
       <c r="E309" s="9" t="s">
@@ -13341,7 +13341,7 @@
       <c r="C310" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D310" s="23">
+      <c r="D310" s="21">
         <v>37807</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -13369,7 +13369,7 @@
       <c r="C311" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="D311" s="23">
+      <c r="D311" s="21">
         <v>37720</v>
       </c>
       <c r="E311" s="9" t="s">
@@ -13397,7 +13397,7 @@
       <c r="C312" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="23">
+      <c r="D312" s="21">
         <v>37915</v>
       </c>
       <c r="E312" s="9" t="s">
@@ -13425,7 +13425,7 @@
       <c r="C313" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D313" s="23">
+      <c r="D313" s="21">
         <v>37779</v>
       </c>
       <c r="E313" s="9" t="s">
@@ -13453,7 +13453,7 @@
       <c r="C314" s="10" t="s">
         <v>957</v>
       </c>
-      <c r="D314" s="23">
+      <c r="D314" s="21">
         <v>37656</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -13481,7 +13481,7 @@
       <c r="C315" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="D315" s="23">
+      <c r="D315" s="21">
         <v>37704</v>
       </c>
       <c r="E315" s="9" t="s">
@@ -13509,7 +13509,7 @@
       <c r="C316" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D316" s="23">
+      <c r="D316" s="21">
         <v>37873</v>
       </c>
       <c r="E316" s="9" t="s">
@@ -13537,7 +13537,7 @@
       <c r="C317" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D317" s="23">
+      <c r="D317" s="21">
         <v>37911</v>
       </c>
       <c r="E317" s="9" t="s">
@@ -13565,7 +13565,7 @@
       <c r="C318" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D318" s="23">
+      <c r="D318" s="21">
         <v>37746</v>
       </c>
       <c r="E318" s="9" t="s">
@@ -13593,7 +13593,7 @@
       <c r="C319" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D319" s="23">
+      <c r="D319" s="21">
         <v>37943</v>
       </c>
       <c r="E319" s="9" t="s">
@@ -13621,7 +13621,7 @@
       <c r="C320" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D320" s="23">
+      <c r="D320" s="21">
         <v>37950</v>
       </c>
       <c r="E320" s="9" t="s">
@@ -13649,7 +13649,7 @@
       <c r="C321" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D321" s="23">
+      <c r="D321" s="21">
         <v>37877</v>
       </c>
       <c r="E321" s="9" t="s">
@@ -13677,7 +13677,7 @@
       <c r="C322" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D322" s="23">
+      <c r="D322" s="21">
         <v>37902</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -13705,7 +13705,7 @@
       <c r="C323" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D323" s="23">
+      <c r="D323" s="21">
         <v>37833</v>
       </c>
       <c r="E323" s="9" t="s">
@@ -13733,7 +13733,7 @@
       <c r="C324" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D324" s="23">
+      <c r="D324" s="21">
         <v>37872</v>
       </c>
       <c r="E324" s="9" t="s">
@@ -13761,7 +13761,7 @@
       <c r="C325" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D325" s="23">
+      <c r="D325" s="21">
         <v>37902</v>
       </c>
       <c r="E325" s="9" t="s">
@@ -13789,7 +13789,7 @@
       <c r="C326" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="D326" s="23">
+      <c r="D326" s="21">
         <v>37725</v>
       </c>
       <c r="E326" s="9" t="s">
@@ -13817,7 +13817,7 @@
       <c r="C327" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="D327" s="23">
+      <c r="D327" s="21">
         <v>37718</v>
       </c>
       <c r="E327" s="9" t="s">
@@ -13845,7 +13845,7 @@
       <c r="C328" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D328" s="23">
+      <c r="D328" s="21">
         <v>37850</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -13873,7 +13873,7 @@
       <c r="C329" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D329" s="23">
+      <c r="D329" s="21">
         <v>37920</v>
       </c>
       <c r="E329" s="9" t="s">
@@ -13901,7 +13901,7 @@
       <c r="C330" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="D330" s="23">
+      <c r="D330" s="21">
         <v>37718</v>
       </c>
       <c r="E330" s="9" t="s">
@@ -13929,7 +13929,7 @@
       <c r="C331" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="D331" s="23">
+      <c r="D331" s="21">
         <v>37886</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -13957,7 +13957,7 @@
       <c r="C332" s="10" t="s">
         <v>1009</v>
       </c>
-      <c r="D332" s="23">
+      <c r="D332" s="21">
         <v>37826</v>
       </c>
       <c r="E332" s="9" t="s">
@@ -13985,7 +13985,7 @@
       <c r="C333" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D333" s="23">
+      <c r="D333" s="21">
         <v>37887</v>
       </c>
       <c r="E333" s="9" t="s">
@@ -14013,7 +14013,7 @@
       <c r="C334" s="10" t="s">
         <v>1015</v>
       </c>
-      <c r="D334" s="23">
+      <c r="D334" s="21">
         <v>37783</v>
       </c>
       <c r="E334" s="9" t="s">
@@ -14041,7 +14041,7 @@
       <c r="C335" s="10" t="s">
         <v>1019</v>
       </c>
-      <c r="D335" s="23">
+      <c r="D335" s="21">
         <v>37880</v>
       </c>
       <c r="E335" s="9" t="s">
@@ -14069,7 +14069,7 @@
       <c r="C336" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="D336" s="23">
+      <c r="D336" s="21">
         <v>37846</v>
       </c>
       <c r="E336" s="9" t="s">
@@ -14097,7 +14097,7 @@
       <c r="C337" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D337" s="23">
+      <c r="D337" s="21">
         <v>37728</v>
       </c>
       <c r="E337" s="9" t="s">
@@ -14125,7 +14125,7 @@
       <c r="C338" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D338" s="23">
+      <c r="D338" s="21">
         <v>37718</v>
       </c>
       <c r="E338" s="9" t="s">
@@ -14153,7 +14153,7 @@
       <c r="C339" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D339" s="23">
+      <c r="D339" s="21">
         <v>37636</v>
       </c>
       <c r="E339" s="9" t="s">
@@ -14181,7 +14181,7 @@
       <c r="C340" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="D340" s="23">
+      <c r="D340" s="21">
         <v>37729</v>
       </c>
       <c r="E340" s="9" t="s">
@@ -14209,7 +14209,7 @@
       <c r="C341" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="D341" s="23">
+      <c r="D341" s="21">
         <v>37824</v>
       </c>
       <c r="E341" s="9" t="s">
@@ -14237,7 +14237,7 @@
       <c r="C342" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D342" s="23">
+      <c r="D342" s="21">
         <v>37649</v>
       </c>
       <c r="E342" s="9" t="s">
@@ -14265,7 +14265,7 @@
       <c r="C343" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D343" s="23">
+      <c r="D343" s="21">
         <v>37925</v>
       </c>
       <c r="E343" s="9" t="s">
@@ -14293,7 +14293,7 @@
       <c r="C344" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="D344" s="23">
+      <c r="D344" s="21">
         <v>37898</v>
       </c>
       <c r="E344" s="9" t="s">
@@ -14321,7 +14321,7 @@
       <c r="C345" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D345" s="23">
+      <c r="D345" s="21">
         <v>37897</v>
       </c>
       <c r="E345" s="9" t="s">
@@ -14349,7 +14349,7 @@
       <c r="C346" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="D346" s="23">
+      <c r="D346" s="21">
         <v>37708</v>
       </c>
       <c r="E346" s="9" t="s">
@@ -14377,7 +14377,7 @@
       <c r="C347" s="10" t="s">
         <v>1051</v>
       </c>
-      <c r="D347" s="23">
+      <c r="D347" s="21">
         <v>37958</v>
       </c>
       <c r="E347" s="9" t="s">
@@ -14405,7 +14405,7 @@
       <c r="C348" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D348" s="23">
+      <c r="D348" s="21">
         <v>37673</v>
       </c>
       <c r="E348" s="9" t="s">
@@ -14433,7 +14433,7 @@
       <c r="C349" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="D349" s="23">
+      <c r="D349" s="21">
         <v>37924</v>
       </c>
       <c r="E349" s="9" t="s">
@@ -14461,7 +14461,7 @@
       <c r="C350" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="D350" s="23">
+      <c r="D350" s="21">
         <v>37894</v>
       </c>
       <c r="E350" s="9" t="s">
@@ -14489,7 +14489,7 @@
       <c r="C351" s="10" t="s">
         <v>1064</v>
       </c>
-      <c r="D351" s="23">
+      <c r="D351" s="21">
         <v>37986</v>
       </c>
       <c r="E351" s="9" t="s">
@@ -14517,7 +14517,7 @@
       <c r="C352" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D352" s="23">
+      <c r="D352" s="21">
         <v>37794</v>
       </c>
       <c r="E352" s="9" t="s">
@@ -14545,7 +14545,7 @@
       <c r="C353" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D353" s="23">
+      <c r="D353" s="21">
         <v>37883</v>
       </c>
       <c r="E353" s="9" t="s">
@@ -14573,7 +14573,7 @@
       <c r="C354" s="10" t="s">
         <v>1071</v>
       </c>
-      <c r="D354" s="23">
+      <c r="D354" s="21">
         <v>37773</v>
       </c>
       <c r="E354" s="9" t="s">
@@ -14601,7 +14601,7 @@
       <c r="C355" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D355" s="23">
+      <c r="D355" s="21">
         <v>37865</v>
       </c>
       <c r="E355" s="9" t="s">
@@ -14629,7 +14629,7 @@
       <c r="C356" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D356" s="23">
+      <c r="D356" s="21">
         <v>37988</v>
       </c>
       <c r="E356" s="9" t="s">
@@ -14657,7 +14657,7 @@
       <c r="C357" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D357" s="23">
+      <c r="D357" s="21">
         <v>38269</v>
       </c>
       <c r="E357" s="9" t="s">
@@ -14685,7 +14685,7 @@
       <c r="C358" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D358" s="23">
+      <c r="D358" s="21">
         <v>38243</v>
       </c>
       <c r="E358" s="9" t="s">
@@ -14713,7 +14713,7 @@
       <c r="C359" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D359" s="23">
+      <c r="D359" s="21">
         <v>37990</v>
       </c>
       <c r="E359" s="9" t="s">
@@ -14741,7 +14741,7 @@
       <c r="C360" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D360" s="23">
+      <c r="D360" s="21">
         <v>37981</v>
       </c>
       <c r="E360" s="9" t="s">
@@ -14769,7 +14769,7 @@
       <c r="C361" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D361" s="23">
+      <c r="D361" s="21">
         <v>38326</v>
       </c>
       <c r="E361" s="9" t="s">
@@ -14797,7 +14797,7 @@
       <c r="C362" s="10" t="s">
         <v>1091</v>
       </c>
-      <c r="D362" s="23">
+      <c r="D362" s="21">
         <v>38249</v>
       </c>
       <c r="E362" s="9" t="s">
@@ -14825,7 +14825,7 @@
       <c r="C363" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D363" s="23">
+      <c r="D363" s="21">
         <v>38150</v>
       </c>
       <c r="E363" s="9" t="s">
@@ -14853,7 +14853,7 @@
       <c r="C364" s="10" t="s">
         <v>1098</v>
       </c>
-      <c r="D364" s="23">
+      <c r="D364" s="21">
         <v>38106</v>
       </c>
       <c r="E364" s="9" t="s">
@@ -14881,7 +14881,7 @@
       <c r="C365" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D365" s="23">
+      <c r="D365" s="21">
         <v>38164</v>
       </c>
       <c r="E365" s="9" t="s">
@@ -14909,7 +14909,7 @@
       <c r="C366" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D366" s="23">
+      <c r="D366" s="21">
         <v>38001</v>
       </c>
       <c r="E366" s="9" t="s">
@@ -14937,7 +14937,7 @@
       <c r="C367" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D367" s="23">
+      <c r="D367" s="21">
         <v>38027</v>
       </c>
       <c r="E367" s="9" t="s">
@@ -14965,7 +14965,7 @@
       <c r="C368" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D368" s="23">
+      <c r="D368" s="21">
         <v>38292</v>
       </c>
       <c r="E368" s="9" t="s">
@@ -14993,7 +14993,7 @@
       <c r="C369" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D369" s="23">
+      <c r="D369" s="21">
         <v>38141</v>
       </c>
       <c r="E369" s="9" t="s">
@@ -15021,7 +15021,7 @@
       <c r="C370" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D370" s="23">
+      <c r="D370" s="21">
         <v>37006</v>
       </c>
       <c r="E370" s="9" t="s">
@@ -15049,7 +15049,7 @@
       <c r="C371" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D371" s="23">
+      <c r="D371" s="21">
         <v>38201</v>
       </c>
       <c r="E371" s="9" t="s">
@@ -15077,7 +15077,7 @@
       <c r="C372" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D372" s="23">
+      <c r="D372" s="21">
         <v>37766</v>
       </c>
       <c r="E372" s="9" t="s">
@@ -15105,7 +15105,7 @@
       <c r="C373" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D373" s="23">
+      <c r="D373" s="21">
         <v>38199</v>
       </c>
       <c r="E373" s="9" t="s">
@@ -15133,7 +15133,7 @@
       <c r="C374" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D374" s="23">
+      <c r="D374" s="21">
         <v>38264</v>
       </c>
       <c r="E374" s="9" t="s">
@@ -15161,7 +15161,7 @@
       <c r="C375" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D375" s="23">
+      <c r="D375" s="21">
         <v>38034</v>
       </c>
       <c r="E375" s="9" t="s">
@@ -15189,7 +15189,7 @@
       <c r="C376" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D376" s="23">
+      <c r="D376" s="21">
         <v>38251</v>
       </c>
       <c r="E376" s="9" t="s">
@@ -15217,7 +15217,7 @@
       <c r="C377" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D377" s="23">
+      <c r="D377" s="21">
         <v>38114</v>
       </c>
       <c r="E377" s="9" t="s">
@@ -15245,7 +15245,7 @@
       <c r="C378" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="D378" s="23">
+      <c r="D378" s="21">
         <v>38283</v>
       </c>
       <c r="E378" s="9" t="s">
@@ -15273,7 +15273,7 @@
       <c r="C379" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="D379" s="23">
+      <c r="D379" s="21">
         <v>38187</v>
       </c>
       <c r="E379" s="9" t="s">
@@ -15301,7 +15301,7 @@
       <c r="C380" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D380" s="23">
+      <c r="D380" s="21">
         <v>38261</v>
       </c>
       <c r="E380" s="9" t="s">
@@ -15329,7 +15329,7 @@
       <c r="C381" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D381" s="23">
+      <c r="D381" s="21">
         <v>38188</v>
       </c>
       <c r="E381" s="9" t="s">
@@ -15357,7 +15357,7 @@
       <c r="C382" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D382" s="23">
+      <c r="D382" s="21">
         <v>38349</v>
       </c>
       <c r="E382" s="9" t="s">
@@ -15385,7 +15385,7 @@
       <c r="C383" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D383" s="23">
+      <c r="D383" s="21">
         <v>38173</v>
       </c>
       <c r="E383" s="9" t="s">
@@ -15413,7 +15413,7 @@
       <c r="C384" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D384" s="23">
+      <c r="D384" s="21">
         <v>38139</v>
       </c>
       <c r="E384" s="9" t="s">
@@ -15441,7 +15441,7 @@
       <c r="C385" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="D385" s="23">
+      <c r="D385" s="21">
         <v>38237</v>
       </c>
       <c r="E385" s="9" t="s">
@@ -15469,7 +15469,7 @@
       <c r="C386" s="10" t="s">
         <v>1162</v>
       </c>
-      <c r="D386" s="23">
+      <c r="D386" s="21">
         <v>38201</v>
       </c>
       <c r="E386" s="9" t="s">
@@ -15497,7 +15497,7 @@
       <c r="C387" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="D387" s="23">
+      <c r="D387" s="21">
         <v>38046</v>
       </c>
       <c r="E387" s="9" t="s">
@@ -15525,7 +15525,7 @@
       <c r="C388" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D388" s="23">
+      <c r="D388" s="21">
         <v>38087</v>
       </c>
       <c r="E388" s="9" t="s">
@@ -15553,7 +15553,7 @@
       <c r="C389" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D389" s="23">
+      <c r="D389" s="21">
         <v>38352</v>
       </c>
       <c r="E389" s="9" t="s">
@@ -15581,7 +15581,7 @@
       <c r="C390" s="10" t="s">
         <v>1174</v>
       </c>
-      <c r="D390" s="23">
+      <c r="D390" s="21">
         <v>38113</v>
       </c>
       <c r="E390" s="9" t="s">
@@ -15609,7 +15609,7 @@
       <c r="C391" s="10" t="s">
         <v>1174</v>
       </c>
-      <c r="D391" s="23">
+      <c r="D391" s="21">
         <v>38002</v>
       </c>
       <c r="E391" s="9" t="s">
@@ -15637,7 +15637,7 @@
       <c r="C392" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D392" s="23">
+      <c r="D392" s="21">
         <v>38279</v>
       </c>
       <c r="E392" s="9" t="s">
@@ -15665,7 +15665,7 @@
       <c r="C393" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D393" s="23">
+      <c r="D393" s="21">
         <v>38147</v>
       </c>
       <c r="E393" s="9" t="s">
@@ -15693,7 +15693,7 @@
       <c r="C394" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D394" s="23">
+      <c r="D394" s="21">
         <v>36287</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -15721,7 +15721,7 @@
       <c r="C395" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D395" s="23">
+      <c r="D395" s="21">
         <v>38246</v>
       </c>
       <c r="E395" s="9" t="s">
@@ -15749,7 +15749,7 @@
       <c r="C396" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D396" s="23">
+      <c r="D396" s="21">
         <v>38153</v>
       </c>
       <c r="E396" s="9" t="s">
@@ -15777,7 +15777,7 @@
       <c r="C397" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="D397" s="23">
+      <c r="D397" s="21">
         <v>38336</v>
       </c>
       <c r="E397" s="9" t="s">
@@ -15805,7 +15805,7 @@
       <c r="C398" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="D398" s="23">
+      <c r="D398" s="21">
         <v>38090</v>
       </c>
       <c r="E398" s="9" t="s">
@@ -15833,7 +15833,7 @@
       <c r="C399" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D399" s="23">
+      <c r="D399" s="21">
         <v>38242</v>
       </c>
       <c r="E399" s="9" t="s">
@@ -15861,7 +15861,7 @@
       <c r="C400" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D400" s="23">
+      <c r="D400" s="21">
         <v>38233</v>
       </c>
       <c r="E400" s="9" t="s">
@@ -15889,7 +15889,7 @@
       <c r="C401" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D401" s="23">
+      <c r="D401" s="21">
         <v>38183</v>
       </c>
       <c r="E401" s="9" t="s">
@@ -15917,7 +15917,7 @@
       <c r="C402" s="10" t="s">
         <v>1210</v>
       </c>
-      <c r="D402" s="23">
+      <c r="D402" s="21">
         <v>38234</v>
       </c>
       <c r="E402" s="9" t="s">
@@ -15945,7 +15945,7 @@
       <c r="C403" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D403" s="23">
+      <c r="D403" s="21">
         <v>37850</v>
       </c>
       <c r="E403" s="9" t="s">
@@ -15973,7 +15973,7 @@
       <c r="C404" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D404" s="23">
+      <c r="D404" s="21">
         <v>38187</v>
       </c>
       <c r="E404" s="9" t="s">
@@ -16001,7 +16001,7 @@
       <c r="C405" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D405" s="23">
+      <c r="D405" s="21">
         <v>38169</v>
       </c>
       <c r="E405" s="9" t="s">
@@ -16029,7 +16029,7 @@
       <c r="C406" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D406" s="23">
+      <c r="D406" s="21">
         <v>38352</v>
       </c>
       <c r="E406" s="9" t="s">
@@ -16057,7 +16057,7 @@
       <c r="C407" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D407" s="23">
+      <c r="D407" s="21">
         <v>38178</v>
       </c>
       <c r="E407" s="9" t="s">
@@ -16085,7 +16085,7 @@
       <c r="C408" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D408" s="23">
+      <c r="D408" s="21">
         <v>38148</v>
       </c>
       <c r="E408" s="9" t="s">
@@ -16113,7 +16113,7 @@
       <c r="C409" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D409" s="23">
+      <c r="D409" s="21">
         <v>38343</v>
       </c>
       <c r="E409" s="9" t="s">
@@ -16141,7 +16141,7 @@
       <c r="C410" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="D410" s="23">
+      <c r="D410" s="21">
         <v>38187</v>
       </c>
       <c r="E410" s="9" t="s">
@@ -16169,7 +16169,7 @@
       <c r="C411" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="D411" s="23">
+      <c r="D411" s="21">
         <v>38108</v>
       </c>
       <c r="E411" s="9" t="s">
@@ -16197,7 +16197,7 @@
       <c r="C412" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="D412" s="23">
+      <c r="D412" s="21">
         <v>38341</v>
       </c>
       <c r="E412" s="9" t="s">
@@ -16225,7 +16225,7 @@
       <c r="C413" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="D413" s="23">
+      <c r="D413" s="21">
         <v>38210</v>
       </c>
       <c r="E413" s="9" t="s">
@@ -16253,7 +16253,7 @@
       <c r="C414" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="D414" s="23">
+      <c r="D414" s="21">
         <v>37813</v>
       </c>
       <c r="E414" s="9" t="s">
@@ -16281,7 +16281,7 @@
       <c r="C415" s="10" t="s">
         <v>1009</v>
       </c>
-      <c r="D415" s="23">
+      <c r="D415" s="21">
         <v>38344</v>
       </c>
       <c r="E415" s="9" t="s">
@@ -16309,7 +16309,7 @@
       <c r="C416" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D416" s="23">
+      <c r="D416" s="21">
         <v>38043</v>
       </c>
       <c r="E416" s="9" t="s">
@@ -16337,7 +16337,7 @@
       <c r="C417" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D417" s="23">
+      <c r="D417" s="21">
         <v>38171</v>
       </c>
       <c r="E417" s="9" t="s">
@@ -16365,7 +16365,7 @@
       <c r="C418" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D418" s="23">
+      <c r="D418" s="21">
         <v>37989</v>
       </c>
       <c r="E418" s="9" t="s">
@@ -16393,7 +16393,7 @@
       <c r="C419" s="10" t="s">
         <v>1257</v>
       </c>
-      <c r="D419" s="23">
+      <c r="D419" s="21">
         <v>38319</v>
       </c>
       <c r="E419" s="9" t="s">
@@ -16421,7 +16421,7 @@
       <c r="C420" s="10" t="s">
         <v>1257</v>
       </c>
-      <c r="D420" s="23">
+      <c r="D420" s="21">
         <v>38318</v>
       </c>
       <c r="E420" s="9" t="s">
@@ -16449,7 +16449,7 @@
       <c r="C421" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D421" s="23">
+      <c r="D421" s="21">
         <v>38274</v>
       </c>
       <c r="E421" s="9" t="s">
@@ -16477,7 +16477,7 @@
       <c r="C422" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D422" s="23">
+      <c r="D422" s="21">
         <v>38029</v>
       </c>
       <c r="E422" s="9" t="s">
@@ -16505,7 +16505,7 @@
       <c r="C423" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D423" s="23">
+      <c r="D423" s="21">
         <v>38206</v>
       </c>
       <c r="E423" s="9" t="s">
@@ -16533,7 +16533,7 @@
       <c r="C424" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D424" s="23">
+      <c r="D424" s="21">
         <v>38230</v>
       </c>
       <c r="E424" s="9" t="s">
@@ -16561,7 +16561,7 @@
       <c r="C425" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D425" s="23">
+      <c r="D425" s="21">
         <v>38157</v>
       </c>
       <c r="E425" s="9" t="s">
@@ -16589,7 +16589,7 @@
       <c r="C426" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D426" s="23">
+      <c r="D426" s="21">
         <v>38122</v>
       </c>
       <c r="E426" s="9" t="s">
@@ -16617,7 +16617,7 @@
       <c r="C427" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D427" s="23">
+      <c r="D427" s="21">
         <v>38014</v>
       </c>
       <c r="E427" s="9" t="s">
@@ -16645,7 +16645,7 @@
       <c r="C428" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D428" s="23">
+      <c r="D428" s="21">
         <v>38057</v>
       </c>
       <c r="E428" s="9" t="s">
@@ -16673,7 +16673,7 @@
       <c r="C429" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D429" s="23">
+      <c r="D429" s="21">
         <v>38179</v>
       </c>
       <c r="E429" s="9" t="s">
@@ -16701,7 +16701,7 @@
       <c r="C430" s="10" t="s">
         <v>1288</v>
       </c>
-      <c r="D430" s="23">
+      <c r="D430" s="21">
         <v>38253</v>
       </c>
       <c r="E430" s="9" t="s">
@@ -16729,7 +16729,7 @@
       <c r="C431" s="10" t="s">
         <v>1292</v>
       </c>
-      <c r="D431" s="23">
+      <c r="D431" s="21">
         <v>36402</v>
       </c>
       <c r="E431" s="9" t="s">
@@ -16757,7 +16757,7 @@
       <c r="C432" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="D432" s="23">
+      <c r="D432" s="21">
         <v>38000</v>
       </c>
       <c r="E432" s="9" t="s">
@@ -16785,7 +16785,7 @@
       <c r="C433" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="D433" s="23">
+      <c r="D433" s="21">
         <v>37343</v>
       </c>
       <c r="E433" s="9" t="s">
@@ -16813,7 +16813,7 @@
       <c r="C434" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="D434" s="23">
+      <c r="D434" s="21">
         <v>38188</v>
       </c>
       <c r="E434" s="9" t="s">
@@ -16841,7 +16841,7 @@
       <c r="C435" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="D435" s="23">
+      <c r="D435" s="21">
         <v>38281</v>
       </c>
       <c r="E435" s="9" t="s">
@@ -16869,7 +16869,7 @@
       <c r="C436" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="D436" s="23">
+      <c r="D436" s="21">
         <v>38016</v>
       </c>
       <c r="E436" s="9" t="s">
@@ -16897,7 +16897,7 @@
       <c r="C437" s="10" t="s">
         <v>1311</v>
       </c>
-      <c r="D437" s="23">
+      <c r="D437" s="21">
         <v>38002</v>
       </c>
       <c r="E437" s="9" t="s">
@@ -16925,7 +16925,7 @@
       <c r="C438" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D438" s="23">
+      <c r="D438" s="21">
         <v>38251</v>
       </c>
       <c r="E438" s="9" t="s">
@@ -16953,7 +16953,7 @@
       <c r="C439" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D439" s="23">
+      <c r="D439" s="21">
         <v>38193</v>
       </c>
       <c r="E439" s="9" t="s">
@@ -16981,7 +16981,7 @@
       <c r="C440" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="D440" s="23">
+      <c r="D440" s="21">
         <v>38180</v>
       </c>
       <c r="E440" s="9" t="s">
@@ -17009,7 +17009,7 @@
       <c r="C441" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="D441" s="23">
+      <c r="D441" s="21">
         <v>38214</v>
       </c>
       <c r="E441" s="9" t="s">
@@ -17037,7 +17037,7 @@
       <c r="C442" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="D442" s="23">
+      <c r="D442" s="21">
         <v>38339</v>
       </c>
       <c r="E442" s="9" t="s">
@@ -17065,7 +17065,7 @@
       <c r="C443" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D443" s="23">
+      <c r="D443" s="21">
         <v>38428</v>
       </c>
       <c r="E443" s="9" t="s">
@@ -17093,7 +17093,7 @@
       <c r="C444" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D444" s="23">
+      <c r="D444" s="21">
         <v>38078</v>
       </c>
       <c r="E444" s="9" t="s">
@@ -17121,7 +17121,7 @@
       <c r="C445" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D445" s="23">
+      <c r="D445" s="21">
         <v>38314</v>
       </c>
       <c r="E445" s="9" t="s">
@@ -17149,7 +17149,7 @@
       <c r="C446" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="D446" s="23">
+      <c r="D446" s="21">
         <v>38096</v>
       </c>
       <c r="E446" s="9" t="s">
@@ -17177,7 +17177,7 @@
       <c r="C447" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="D447" s="23">
+      <c r="D447" s="21">
         <v>38020</v>
       </c>
       <c r="E447" s="9" t="s">
@@ -17205,7 +17205,7 @@
       <c r="C448" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="D448" s="23">
+      <c r="D448" s="21">
         <v>37942</v>
       </c>
       <c r="E448" s="9" t="s">
@@ -17233,7 +17233,7 @@
       <c r="C449" s="10" t="s">
         <v>1342</v>
       </c>
-      <c r="D449" s="23">
+      <c r="D449" s="21">
         <v>38040</v>
       </c>
       <c r="E449" s="9" t="s">
@@ -17261,7 +17261,7 @@
       <c r="C450" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="D450" s="23">
+      <c r="D450" s="21">
         <v>36895</v>
       </c>
       <c r="E450" s="9" t="s">
@@ -17289,7 +17289,7 @@
       <c r="C451" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="D451" s="23">
+      <c r="D451" s="21">
         <v>38032</v>
       </c>
       <c r="E451" s="9" t="s">
@@ -17317,7 +17317,7 @@
       <c r="C452" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="D452" s="23">
+      <c r="D452" s="21">
         <v>38272</v>
       </c>
       <c r="E452" s="9" t="s">
@@ -17345,7 +17345,7 @@
       <c r="C453" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="D453" s="23">
+      <c r="D453" s="21">
         <v>38104</v>
       </c>
       <c r="E453" s="9" t="s">
@@ -17373,7 +17373,7 @@
       <c r="C454" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="D454" s="23">
+      <c r="D454" s="21">
         <v>38273</v>
       </c>
       <c r="E454" s="9" t="s">
@@ -17401,7 +17401,7 @@
       <c r="C455" s="10" t="s">
         <v>1362</v>
       </c>
-      <c r="D455" s="23">
+      <c r="D455" s="21">
         <v>38199</v>
       </c>
       <c r="E455" s="9" t="s">
@@ -17429,7 +17429,7 @@
       <c r="C456" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="D456" s="23">
+      <c r="D456" s="21">
         <v>38146</v>
       </c>
       <c r="E456" s="9" t="s">
@@ -17457,7 +17457,7 @@
       <c r="C457" s="10" t="s">
         <v>1369</v>
       </c>
-      <c r="D457" s="23">
+      <c r="D457" s="21">
         <v>38338</v>
       </c>
       <c r="E457" s="9" t="s">
@@ -17485,7 +17485,7 @@
       <c r="C458" s="10" t="s">
         <v>1373</v>
       </c>
-      <c r="D458" s="23">
+      <c r="D458" s="21">
         <v>38209</v>
       </c>
       <c r="E458" s="9" t="s">
@@ -17513,7 +17513,7 @@
       <c r="C459" s="10" t="s">
         <v>1373</v>
       </c>
-      <c r="D459" s="23">
+      <c r="D459" s="21">
         <v>38245</v>
       </c>
       <c r="E459" s="9" t="s">
@@ -17541,7 +17541,7 @@
       <c r="C460" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D460" s="23">
+      <c r="D460" s="21">
         <v>38345</v>
       </c>
       <c r="E460" s="9" t="s">
@@ -17569,7 +17569,7 @@
       <c r="C461" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D461" s="23">
+      <c r="D461" s="21">
         <v>38104</v>
       </c>
       <c r="E461" s="9" t="s">
@@ -17597,7 +17597,7 @@
       <c r="C462" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D462" s="23">
+      <c r="D462" s="21">
         <v>38272</v>
       </c>
       <c r="E462" s="9" t="s">
@@ -17625,7 +17625,7 @@
       <c r="C463" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D463" s="23">
+      <c r="D463" s="21">
         <v>38321</v>
       </c>
       <c r="E463" s="9" t="s">
@@ -17653,7 +17653,7 @@
       <c r="C464" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D464" s="23">
+      <c r="D464" s="21">
         <v>38045</v>
       </c>
       <c r="E464" s="9" t="s">
@@ -17681,7 +17681,7 @@
       <c r="C465" s="10" t="s">
         <v>1393</v>
       </c>
-      <c r="D465" s="23">
+      <c r="D465" s="21">
         <v>38318</v>
       </c>
       <c r="E465" s="9" t="s">
@@ -17709,7 +17709,7 @@
       <c r="C466" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D466" s="23">
+      <c r="D466" s="21">
         <v>36716</v>
       </c>
       <c r="E466" s="9" t="s">
@@ -17737,7 +17737,7 @@
       <c r="C467" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D467" s="23">
+      <c r="D467" s="21">
         <v>37993</v>
       </c>
       <c r="E467" s="9" t="s">
@@ -17765,7 +17765,7 @@
       <c r="C468" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D468" s="23">
+      <c r="D468" s="21">
         <v>38311</v>
       </c>
       <c r="E468" s="9" t="s">
@@ -17793,7 +17793,7 @@
       <c r="C469" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D469" s="23">
+      <c r="D469" s="21">
         <v>38326</v>
       </c>
       <c r="E469" s="9" t="s">
@@ -17821,7 +17821,7 @@
       <c r="C470" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D470" s="23">
+      <c r="D470" s="21">
         <v>38270</v>
       </c>
       <c r="E470" s="9" t="s">
@@ -17849,7 +17849,7 @@
     </row>
     <row r="477" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C477" s="11"/>
-      <c r="D477" s="25"/>
+      <c r="D477" s="23"/>
       <c r="E477" s="6"/>
       <c r="N477" s="1"/>
     </row>
@@ -17857,2633 +17857,2633 @@
       <c r="A478" s="6"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
-      <c r="D478" s="26"/>
+      <c r="D478" s="24"/>
       <c r="E478" s="7"/>
       <c r="N478" s="1"/>
     </row>
     <row r="479" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7"/>
-      <c r="D479" s="27"/>
+      <c r="D479" s="25"/>
       <c r="E479" s="7"/>
     </row>
     <row r="480" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="7"/>
-      <c r="D480" s="27"/>
+      <c r="D480" s="25"/>
       <c r="E480" s="7"/>
     </row>
     <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="7"/>
-      <c r="D481" s="27"/>
+      <c r="D481" s="25"/>
       <c r="E481" s="7"/>
     </row>
     <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="7"/>
-      <c r="D482" s="27"/>
+      <c r="D482" s="25"/>
       <c r="E482" s="7"/>
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="7"/>
-      <c r="D483" s="27"/>
+      <c r="D483" s="25"/>
       <c r="E483" s="7"/>
     </row>
     <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="7"/>
-      <c r="D484" s="27"/>
+      <c r="D484" s="25"/>
       <c r="E484" s="7"/>
     </row>
     <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="7"/>
-      <c r="D485" s="27"/>
+      <c r="D485" s="25"/>
       <c r="E485" s="7"/>
     </row>
     <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="7"/>
-      <c r="D486" s="27"/>
+      <c r="D486" s="25"/>
       <c r="E486" s="7"/>
     </row>
     <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="7"/>
-      <c r="D487" s="27"/>
+      <c r="D487" s="25"/>
       <c r="E487" s="7"/>
     </row>
     <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="7"/>
-      <c r="D488" s="27"/>
+      <c r="D488" s="25"/>
       <c r="E488" s="7"/>
     </row>
     <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="7"/>
-      <c r="D489" s="27"/>
+      <c r="D489" s="25"/>
       <c r="E489" s="7"/>
     </row>
     <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="7"/>
-      <c r="D490" s="27"/>
+      <c r="D490" s="25"/>
       <c r="E490" s="7"/>
     </row>
     <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="7"/>
-      <c r="D491" s="27"/>
+      <c r="D491" s="25"/>
       <c r="E491" s="7"/>
     </row>
     <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="7"/>
-      <c r="D492" s="27"/>
+      <c r="D492" s="25"/>
       <c r="E492" s="7"/>
     </row>
     <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="7"/>
-      <c r="D493" s="27"/>
+      <c r="D493" s="25"/>
       <c r="E493" s="7"/>
     </row>
     <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="7"/>
-      <c r="D494" s="27"/>
+      <c r="D494" s="25"/>
       <c r="E494" s="7"/>
     </row>
     <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="7"/>
-      <c r="D495" s="27"/>
+      <c r="D495" s="25"/>
       <c r="E495" s="7"/>
     </row>
     <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="7"/>
-      <c r="D496" s="27"/>
+      <c r="D496" s="25"/>
       <c r="E496" s="7"/>
     </row>
     <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="7"/>
-      <c r="D497" s="27"/>
+      <c r="D497" s="25"/>
       <c r="E497" s="7"/>
     </row>
     <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="7"/>
-      <c r="D498" s="27"/>
+      <c r="D498" s="25"/>
       <c r="E498" s="7"/>
     </row>
     <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="7"/>
-      <c r="D499" s="27"/>
+      <c r="D499" s="25"/>
       <c r="E499" s="7"/>
     </row>
     <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="7"/>
-      <c r="D500" s="27"/>
+      <c r="D500" s="25"/>
       <c r="E500" s="7"/>
     </row>
     <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="7"/>
-      <c r="D501" s="27"/>
+      <c r="D501" s="25"/>
       <c r="E501" s="7"/>
     </row>
     <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="7"/>
-      <c r="D502" s="27"/>
+      <c r="D502" s="25"/>
       <c r="E502" s="7"/>
     </row>
     <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="7"/>
-      <c r="D503" s="27"/>
+      <c r="D503" s="25"/>
       <c r="E503" s="7"/>
     </row>
     <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="7"/>
-      <c r="D504" s="27"/>
+      <c r="D504" s="25"/>
       <c r="E504" s="7"/>
     </row>
     <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="7"/>
-      <c r="D505" s="27"/>
+      <c r="D505" s="25"/>
       <c r="E505" s="7"/>
     </row>
     <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="7"/>
-      <c r="D506" s="27"/>
+      <c r="D506" s="25"/>
       <c r="E506" s="7"/>
     </row>
     <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="7"/>
-      <c r="D507" s="27"/>
+      <c r="D507" s="25"/>
       <c r="E507" s="7"/>
     </row>
     <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="7"/>
-      <c r="D508" s="27"/>
+      <c r="D508" s="25"/>
       <c r="E508" s="7"/>
     </row>
     <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7"/>
-      <c r="D509" s="27"/>
+      <c r="D509" s="25"/>
       <c r="E509" s="7"/>
     </row>
     <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="7"/>
-      <c r="D510" s="27"/>
+      <c r="D510" s="25"/>
       <c r="E510" s="7"/>
     </row>
     <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="7"/>
-      <c r="D511" s="27"/>
+      <c r="D511" s="25"/>
       <c r="E511" s="7"/>
     </row>
     <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="7"/>
-      <c r="D512" s="27"/>
+      <c r="D512" s="25"/>
       <c r="E512" s="7"/>
     </row>
     <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="7"/>
-      <c r="D513" s="27"/>
+      <c r="D513" s="25"/>
       <c r="E513" s="7"/>
     </row>
     <row r="514" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="7"/>
-      <c r="D514" s="27"/>
+      <c r="D514" s="25"/>
       <c r="E514" s="7"/>
     </row>
     <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="7"/>
-      <c r="D515" s="27"/>
+      <c r="D515" s="25"/>
       <c r="E515" s="7"/>
     </row>
     <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="7"/>
-      <c r="D516" s="27"/>
+      <c r="D516" s="25"/>
       <c r="E516" s="7"/>
     </row>
     <row r="517" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="7"/>
-      <c r="D517" s="27"/>
+      <c r="D517" s="25"/>
       <c r="E517" s="7"/>
     </row>
     <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7"/>
-      <c r="D518" s="27"/>
+      <c r="D518" s="25"/>
       <c r="E518" s="7"/>
     </row>
     <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="7"/>
-      <c r="D519" s="27"/>
+      <c r="D519" s="25"/>
       <c r="E519" s="7"/>
     </row>
     <row r="520" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="7"/>
-      <c r="D520" s="27"/>
+      <c r="D520" s="25"/>
       <c r="E520" s="7"/>
     </row>
     <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="7"/>
-      <c r="D521" s="27"/>
+      <c r="D521" s="25"/>
       <c r="E521" s="7"/>
     </row>
     <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="7"/>
-      <c r="D522" s="27"/>
+      <c r="D522" s="25"/>
       <c r="E522" s="7"/>
     </row>
     <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="7"/>
-      <c r="D523" s="27"/>
+      <c r="D523" s="25"/>
       <c r="E523" s="7"/>
     </row>
     <row r="524" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="7"/>
-      <c r="D524" s="27"/>
+      <c r="D524" s="25"/>
       <c r="E524" s="7"/>
     </row>
     <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="7"/>
-      <c r="D525" s="27"/>
+      <c r="D525" s="25"/>
       <c r="E525" s="7"/>
     </row>
     <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="7"/>
-      <c r="D526" s="27"/>
+      <c r="D526" s="25"/>
       <c r="E526" s="7"/>
     </row>
     <row r="527" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="7"/>
-      <c r="D527" s="27"/>
+      <c r="D527" s="25"/>
       <c r="E527" s="7"/>
     </row>
     <row r="528" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="7"/>
-      <c r="D528" s="27"/>
+      <c r="D528" s="25"/>
       <c r="E528" s="7"/>
     </row>
     <row r="529" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="7"/>
-      <c r="D529" s="27"/>
+      <c r="D529" s="25"/>
       <c r="E529" s="7"/>
     </row>
     <row r="530" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="7"/>
-      <c r="D530" s="27"/>
+      <c r="D530" s="25"/>
       <c r="E530" s="7"/>
     </row>
     <row r="531" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="7"/>
-      <c r="D531" s="27"/>
+      <c r="D531" s="25"/>
       <c r="E531" s="7"/>
     </row>
     <row r="532" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="7"/>
-      <c r="D532" s="27"/>
+      <c r="D532" s="25"/>
       <c r="E532" s="7"/>
     </row>
     <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="7"/>
-      <c r="D533" s="27"/>
+      <c r="D533" s="25"/>
       <c r="E533" s="7"/>
     </row>
     <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="7"/>
-      <c r="D534" s="27"/>
+      <c r="D534" s="25"/>
       <c r="E534" s="7"/>
     </row>
     <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="7"/>
-      <c r="D535" s="27"/>
+      <c r="D535" s="25"/>
       <c r="E535" s="7"/>
     </row>
     <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="7"/>
-      <c r="D536" s="27"/>
+      <c r="D536" s="25"/>
       <c r="E536" s="7"/>
     </row>
     <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="7"/>
-      <c r="D537" s="27"/>
+      <c r="D537" s="25"/>
       <c r="E537" s="7"/>
     </row>
     <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="7"/>
-      <c r="D538" s="27"/>
+      <c r="D538" s="25"/>
       <c r="E538" s="7"/>
     </row>
     <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="7"/>
-      <c r="D539" s="27"/>
+      <c r="D539" s="25"/>
       <c r="E539" s="7"/>
     </row>
     <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="7"/>
-      <c r="D540" s="27"/>
+      <c r="D540" s="25"/>
       <c r="E540" s="7"/>
     </row>
     <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="7"/>
-      <c r="D541" s="27"/>
+      <c r="D541" s="25"/>
       <c r="E541" s="7"/>
     </row>
     <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="7"/>
-      <c r="D542" s="27"/>
+      <c r="D542" s="25"/>
       <c r="E542" s="7"/>
     </row>
     <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="7"/>
-      <c r="D543" s="27"/>
+      <c r="D543" s="25"/>
       <c r="E543" s="7"/>
     </row>
     <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="7"/>
-      <c r="D544" s="27"/>
+      <c r="D544" s="25"/>
       <c r="E544" s="7"/>
     </row>
     <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="7"/>
-      <c r="D545" s="27"/>
+      <c r="D545" s="25"/>
       <c r="E545" s="7"/>
     </row>
     <row r="546" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7"/>
-      <c r="D546" s="27"/>
+      <c r="D546" s="25"/>
       <c r="E546" s="7"/>
     </row>
     <row r="547" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="7"/>
-      <c r="D547" s="27"/>
+      <c r="D547" s="25"/>
       <c r="E547" s="7"/>
     </row>
     <row r="548" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="7"/>
-      <c r="D548" s="27"/>
+      <c r="D548" s="25"/>
       <c r="E548" s="7"/>
     </row>
     <row r="549" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="7"/>
-      <c r="D549" s="27"/>
+      <c r="D549" s="25"/>
       <c r="E549" s="7"/>
     </row>
     <row r="550" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="7"/>
-      <c r="D550" s="27"/>
+      <c r="D550" s="25"/>
       <c r="E550" s="7"/>
     </row>
     <row r="551" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="7"/>
-      <c r="D551" s="27"/>
+      <c r="D551" s="25"/>
       <c r="E551" s="7"/>
     </row>
     <row r="552" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="7"/>
-      <c r="D552" s="27"/>
+      <c r="D552" s="25"/>
       <c r="E552" s="7"/>
     </row>
     <row r="553" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="7"/>
-      <c r="D553" s="27"/>
+      <c r="D553" s="25"/>
       <c r="E553" s="7"/>
     </row>
     <row r="554" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="7"/>
-      <c r="D554" s="27"/>
+      <c r="D554" s="25"/>
       <c r="E554" s="7"/>
     </row>
     <row r="555" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="7"/>
-      <c r="D555" s="27"/>
+      <c r="D555" s="25"/>
       <c r="E555" s="7"/>
     </row>
     <row r="556" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="7"/>
-      <c r="D556" s="27"/>
+      <c r="D556" s="25"/>
       <c r="E556" s="7"/>
     </row>
     <row r="557" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="7"/>
-      <c r="D557" s="27"/>
+      <c r="D557" s="25"/>
       <c r="E557" s="7"/>
     </row>
     <row r="558" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="7"/>
-      <c r="D558" s="27"/>
+      <c r="D558" s="25"/>
       <c r="E558" s="7"/>
     </row>
     <row r="559" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="7"/>
-      <c r="D559" s="27"/>
+      <c r="D559" s="25"/>
       <c r="E559" s="7"/>
     </row>
     <row r="560" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="7"/>
-      <c r="D560" s="27"/>
+      <c r="D560" s="25"/>
       <c r="E560" s="7"/>
     </row>
     <row r="561" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="7"/>
-      <c r="D561" s="27"/>
+      <c r="D561" s="25"/>
       <c r="E561" s="7"/>
     </row>
     <row r="562" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="7"/>
-      <c r="D562" s="27"/>
+      <c r="D562" s="25"/>
       <c r="E562" s="7"/>
     </row>
     <row r="563" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="7"/>
-      <c r="D563" s="27"/>
+      <c r="D563" s="25"/>
       <c r="E563" s="7"/>
     </row>
     <row r="564" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="7"/>
-      <c r="D564" s="27"/>
+      <c r="D564" s="25"/>
       <c r="E564" s="7"/>
     </row>
     <row r="565" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="7"/>
-      <c r="D565" s="27"/>
+      <c r="D565" s="25"/>
       <c r="E565" s="7"/>
     </row>
     <row r="566" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="7"/>
-      <c r="D566" s="27"/>
+      <c r="D566" s="25"/>
       <c r="E566" s="7"/>
     </row>
     <row r="567" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="7"/>
-      <c r="D567" s="27"/>
+      <c r="D567" s="25"/>
       <c r="E567" s="7"/>
     </row>
     <row r="568" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="7"/>
-      <c r="D568" s="27"/>
+      <c r="D568" s="25"/>
       <c r="E568" s="7"/>
     </row>
     <row r="569" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="7"/>
-      <c r="D569" s="27"/>
+      <c r="D569" s="25"/>
       <c r="E569" s="7"/>
     </row>
     <row r="570" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="7"/>
-      <c r="D570" s="27"/>
+      <c r="D570" s="25"/>
       <c r="E570" s="7"/>
     </row>
     <row r="571" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="7"/>
-      <c r="D571" s="27"/>
+      <c r="D571" s="25"/>
       <c r="E571" s="7"/>
     </row>
     <row r="572" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="7"/>
-      <c r="D572" s="27"/>
+      <c r="D572" s="25"/>
       <c r="E572" s="7"/>
     </row>
     <row r="573" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="7"/>
-      <c r="D573" s="27"/>
+      <c r="D573" s="25"/>
       <c r="E573" s="7"/>
     </row>
     <row r="574" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="7"/>
-      <c r="D574" s="27"/>
+      <c r="D574" s="25"/>
       <c r="E574" s="7"/>
     </row>
     <row r="575" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="7"/>
-      <c r="D575" s="27"/>
+      <c r="D575" s="25"/>
       <c r="E575" s="7"/>
     </row>
     <row r="576" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="7"/>
-      <c r="D576" s="27"/>
+      <c r="D576" s="25"/>
       <c r="E576" s="7"/>
     </row>
     <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="7"/>
-      <c r="D577" s="27"/>
+      <c r="D577" s="25"/>
       <c r="E577" s="7"/>
     </row>
     <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="7"/>
-      <c r="D578" s="27"/>
+      <c r="D578" s="25"/>
       <c r="E578" s="7"/>
     </row>
     <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="7"/>
-      <c r="D579" s="27"/>
+      <c r="D579" s="25"/>
       <c r="E579" s="7"/>
     </row>
     <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="7"/>
-      <c r="D580" s="27"/>
+      <c r="D580" s="25"/>
       <c r="E580" s="7"/>
     </row>
     <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="7"/>
-      <c r="D581" s="27"/>
+      <c r="D581" s="25"/>
       <c r="E581" s="7"/>
     </row>
     <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="7"/>
-      <c r="D582" s="27"/>
+      <c r="D582" s="25"/>
       <c r="E582" s="7"/>
     </row>
     <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="7"/>
-      <c r="D583" s="27"/>
+      <c r="D583" s="25"/>
       <c r="E583" s="7"/>
     </row>
     <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="7"/>
-      <c r="D584" s="27"/>
+      <c r="D584" s="25"/>
       <c r="E584" s="7"/>
     </row>
     <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="7"/>
-      <c r="D585" s="27"/>
+      <c r="D585" s="25"/>
       <c r="E585" s="7"/>
     </row>
     <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="7"/>
-      <c r="D586" s="27"/>
+      <c r="D586" s="25"/>
       <c r="E586" s="7"/>
     </row>
     <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="7"/>
-      <c r="D587" s="27"/>
+      <c r="D587" s="25"/>
       <c r="E587" s="7"/>
     </row>
     <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="7"/>
-      <c r="D588" s="27"/>
+      <c r="D588" s="25"/>
       <c r="E588" s="7"/>
     </row>
     <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="7"/>
-      <c r="D589" s="27"/>
+      <c r="D589" s="25"/>
       <c r="E589" s="7"/>
     </row>
     <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="7"/>
-      <c r="D590" s="27"/>
+      <c r="D590" s="25"/>
       <c r="E590" s="7"/>
     </row>
     <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="7"/>
-      <c r="D591" s="27"/>
+      <c r="D591" s="25"/>
       <c r="E591" s="7"/>
     </row>
     <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7"/>
-      <c r="D592" s="27"/>
+      <c r="D592" s="25"/>
       <c r="E592" s="7"/>
     </row>
     <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="7"/>
-      <c r="D593" s="27"/>
+      <c r="D593" s="25"/>
       <c r="E593" s="7"/>
     </row>
     <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="7"/>
-      <c r="D594" s="27"/>
+      <c r="D594" s="25"/>
       <c r="E594" s="7"/>
     </row>
     <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="7"/>
-      <c r="D595" s="27"/>
+      <c r="D595" s="25"/>
       <c r="E595" s="7"/>
     </row>
     <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="7"/>
-      <c r="D596" s="27"/>
+      <c r="D596" s="25"/>
       <c r="E596" s="7"/>
     </row>
     <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="7"/>
-      <c r="D597" s="27"/>
+      <c r="D597" s="25"/>
       <c r="E597" s="7"/>
     </row>
     <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="7"/>
-      <c r="D598" s="27"/>
+      <c r="D598" s="25"/>
       <c r="E598" s="7"/>
     </row>
     <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="7"/>
-      <c r="D599" s="27"/>
+      <c r="D599" s="25"/>
       <c r="E599" s="7"/>
     </row>
     <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="7"/>
-      <c r="D600" s="27"/>
+      <c r="D600" s="25"/>
       <c r="E600" s="7"/>
     </row>
     <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="7"/>
-      <c r="D601" s="27"/>
+      <c r="D601" s="25"/>
       <c r="E601" s="7"/>
     </row>
     <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7"/>
-      <c r="D602" s="27"/>
+      <c r="D602" s="25"/>
       <c r="E602" s="7"/>
     </row>
     <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="7"/>
-      <c r="D603" s="27"/>
+      <c r="D603" s="25"/>
       <c r="E603" s="7"/>
     </row>
     <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="7"/>
-      <c r="D604" s="27"/>
+      <c r="D604" s="25"/>
       <c r="E604" s="7"/>
     </row>
     <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7"/>
-      <c r="D605" s="27"/>
+      <c r="D605" s="25"/>
       <c r="E605" s="7"/>
     </row>
     <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="7"/>
-      <c r="D606" s="27"/>
+      <c r="D606" s="25"/>
       <c r="E606" s="7"/>
     </row>
     <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="7"/>
-      <c r="D607" s="27"/>
+      <c r="D607" s="25"/>
       <c r="E607" s="7"/>
     </row>
     <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7"/>
-      <c r="D608" s="27"/>
+      <c r="D608" s="25"/>
       <c r="E608" s="7"/>
     </row>
     <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="7"/>
-      <c r="D609" s="27"/>
+      <c r="D609" s="25"/>
       <c r="E609" s="7"/>
     </row>
     <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="7"/>
-      <c r="D610" s="27"/>
+      <c r="D610" s="25"/>
       <c r="E610" s="7"/>
     </row>
     <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="7"/>
-      <c r="D611" s="27"/>
+      <c r="D611" s="25"/>
       <c r="E611" s="7"/>
     </row>
     <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="7"/>
-      <c r="D612" s="27"/>
+      <c r="D612" s="25"/>
       <c r="E612" s="7"/>
     </row>
     <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="7"/>
-      <c r="D613" s="27"/>
+      <c r="D613" s="25"/>
       <c r="E613" s="7"/>
     </row>
     <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="7"/>
-      <c r="D614" s="27"/>
+      <c r="D614" s="25"/>
       <c r="E614" s="7"/>
     </row>
     <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="7"/>
-      <c r="D615" s="27"/>
+      <c r="D615" s="25"/>
       <c r="E615" s="7"/>
     </row>
     <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="7"/>
-      <c r="D616" s="27"/>
+      <c r="D616" s="25"/>
       <c r="E616" s="7"/>
     </row>
     <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="7"/>
-      <c r="D617" s="27"/>
+      <c r="D617" s="25"/>
       <c r="E617" s="7"/>
     </row>
     <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="7"/>
-      <c r="D618" s="27"/>
+      <c r="D618" s="25"/>
       <c r="E618" s="7"/>
     </row>
     <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="7"/>
-      <c r="D619" s="27"/>
+      <c r="D619" s="25"/>
       <c r="E619" s="7"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="7"/>
-      <c r="D620" s="27"/>
+      <c r="D620" s="25"/>
       <c r="E620" s="7"/>
     </row>
     <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="7"/>
-      <c r="D621" s="27"/>
+      <c r="D621" s="25"/>
       <c r="E621" s="7"/>
     </row>
     <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="7"/>
-      <c r="D622" s="27"/>
+      <c r="D622" s="25"/>
       <c r="E622" s="7"/>
     </row>
     <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="7"/>
-      <c r="D623" s="27"/>
+      <c r="D623" s="25"/>
       <c r="E623" s="7"/>
     </row>
     <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="7"/>
-      <c r="D624" s="27"/>
+      <c r="D624" s="25"/>
       <c r="E624" s="7"/>
     </row>
     <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="7"/>
-      <c r="D625" s="27"/>
+      <c r="D625" s="25"/>
       <c r="E625" s="7"/>
     </row>
     <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="7"/>
-      <c r="D626" s="27"/>
+      <c r="D626" s="25"/>
       <c r="E626" s="7"/>
     </row>
     <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="7"/>
-      <c r="D627" s="27"/>
+      <c r="D627" s="25"/>
       <c r="E627" s="7"/>
     </row>
     <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="7"/>
-      <c r="D628" s="27"/>
+      <c r="D628" s="25"/>
       <c r="E628" s="7"/>
     </row>
     <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="7"/>
-      <c r="D629" s="27"/>
+      <c r="D629" s="25"/>
       <c r="E629" s="7"/>
     </row>
     <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="7"/>
-      <c r="D630" s="27"/>
+      <c r="D630" s="25"/>
       <c r="E630" s="7"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="7"/>
-      <c r="D631" s="27"/>
+      <c r="D631" s="25"/>
       <c r="E631" s="7"/>
     </row>
     <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="7"/>
-      <c r="D632" s="27"/>
+      <c r="D632" s="25"/>
       <c r="E632" s="7"/>
     </row>
     <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="7"/>
-      <c r="D633" s="27"/>
+      <c r="D633" s="25"/>
       <c r="E633" s="7"/>
     </row>
     <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="7"/>
-      <c r="D634" s="27"/>
+      <c r="D634" s="25"/>
       <c r="E634" s="7"/>
     </row>
     <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="7"/>
-      <c r="D635" s="27"/>
+      <c r="D635" s="25"/>
       <c r="E635" s="7"/>
     </row>
     <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="7"/>
-      <c r="D636" s="27"/>
+      <c r="D636" s="25"/>
       <c r="E636" s="7"/>
     </row>
     <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="7"/>
-      <c r="D637" s="27"/>
+      <c r="D637" s="25"/>
       <c r="E637" s="7"/>
     </row>
     <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="7"/>
-      <c r="D638" s="27"/>
+      <c r="D638" s="25"/>
       <c r="E638" s="7"/>
     </row>
     <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="7"/>
-      <c r="D639" s="27"/>
+      <c r="D639" s="25"/>
       <c r="E639" s="7"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="7"/>
-      <c r="D640" s="27"/>
+      <c r="D640" s="25"/>
       <c r="E640" s="7"/>
     </row>
     <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="7"/>
-      <c r="D641" s="27"/>
+      <c r="D641" s="25"/>
       <c r="E641" s="7"/>
     </row>
     <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="7"/>
-      <c r="D642" s="27"/>
+      <c r="D642" s="25"/>
       <c r="E642" s="7"/>
     </row>
     <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="7"/>
-      <c r="D643" s="27"/>
+      <c r="D643" s="25"/>
       <c r="E643" s="7"/>
     </row>
     <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="7"/>
-      <c r="D644" s="27"/>
+      <c r="D644" s="25"/>
       <c r="E644" s="7"/>
     </row>
     <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="7"/>
-      <c r="D645" s="27"/>
+      <c r="D645" s="25"/>
       <c r="E645" s="7"/>
     </row>
     <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="7"/>
-      <c r="D646" s="27"/>
+      <c r="D646" s="25"/>
       <c r="E646" s="7"/>
     </row>
     <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="7"/>
-      <c r="D647" s="27"/>
+      <c r="D647" s="25"/>
       <c r="E647" s="7"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="7"/>
-      <c r="D648" s="27"/>
+      <c r="D648" s="25"/>
       <c r="E648" s="7"/>
     </row>
     <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="7"/>
-      <c r="D649" s="27"/>
+      <c r="D649" s="25"/>
       <c r="E649" s="7"/>
     </row>
     <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="7"/>
-      <c r="D650" s="27"/>
+      <c r="D650" s="25"/>
       <c r="E650" s="7"/>
     </row>
     <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="7"/>
-      <c r="D651" s="27"/>
+      <c r="D651" s="25"/>
       <c r="E651" s="7"/>
     </row>
     <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="7"/>
-      <c r="D652" s="27"/>
+      <c r="D652" s="25"/>
       <c r="E652" s="7"/>
     </row>
     <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="7"/>
-      <c r="D653" s="27"/>
+      <c r="D653" s="25"/>
       <c r="E653" s="7"/>
     </row>
     <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="7"/>
-      <c r="D654" s="27"/>
+      <c r="D654" s="25"/>
       <c r="E654" s="7"/>
     </row>
     <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="7"/>
-      <c r="D655" s="27"/>
+      <c r="D655" s="25"/>
       <c r="E655" s="7"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="7"/>
-      <c r="D656" s="27"/>
+      <c r="D656" s="25"/>
       <c r="E656" s="7"/>
     </row>
     <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="7"/>
-      <c r="D657" s="27"/>
+      <c r="D657" s="25"/>
       <c r="E657" s="7"/>
     </row>
     <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="7"/>
-      <c r="D658" s="27"/>
+      <c r="D658" s="25"/>
       <c r="E658" s="7"/>
     </row>
     <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="7"/>
-      <c r="D659" s="27"/>
+      <c r="D659" s="25"/>
       <c r="E659" s="7"/>
     </row>
     <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="7"/>
-      <c r="D660" s="27"/>
+      <c r="D660" s="25"/>
       <c r="E660" s="7"/>
     </row>
     <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="7"/>
-      <c r="D661" s="27"/>
+      <c r="D661" s="25"/>
       <c r="E661" s="7"/>
     </row>
     <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="7"/>
-      <c r="D662" s="27"/>
+      <c r="D662" s="25"/>
       <c r="E662" s="7"/>
     </row>
     <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="7"/>
-      <c r="D663" s="27"/>
+      <c r="D663" s="25"/>
       <c r="E663" s="7"/>
     </row>
     <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="7"/>
-      <c r="D664" s="27"/>
+      <c r="D664" s="25"/>
       <c r="E664" s="7"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="7"/>
-      <c r="D665" s="27"/>
+      <c r="D665" s="25"/>
       <c r="E665" s="7"/>
     </row>
     <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="7"/>
-      <c r="D666" s="27"/>
+      <c r="D666" s="25"/>
       <c r="E666" s="7"/>
     </row>
     <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="7"/>
-      <c r="D667" s="27"/>
+      <c r="D667" s="25"/>
       <c r="E667" s="7"/>
     </row>
     <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="7"/>
-      <c r="D668" s="27"/>
+      <c r="D668" s="25"/>
       <c r="E668" s="7"/>
     </row>
     <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="7"/>
-      <c r="D669" s="27"/>
+      <c r="D669" s="25"/>
       <c r="E669" s="7"/>
     </row>
     <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="7"/>
-      <c r="D670" s="27"/>
+      <c r="D670" s="25"/>
       <c r="E670" s="7"/>
     </row>
     <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="7"/>
-      <c r="D671" s="27"/>
+      <c r="D671" s="25"/>
       <c r="E671" s="7"/>
     </row>
     <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="7"/>
-      <c r="D672" s="27"/>
+      <c r="D672" s="25"/>
       <c r="E672" s="7"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="7"/>
-      <c r="D673" s="27"/>
+      <c r="D673" s="25"/>
       <c r="E673" s="7"/>
     </row>
     <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="7"/>
-      <c r="D674" s="27"/>
+      <c r="D674" s="25"/>
       <c r="E674" s="7"/>
     </row>
     <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="7"/>
-      <c r="D675" s="27"/>
+      <c r="D675" s="25"/>
       <c r="E675" s="7"/>
     </row>
     <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="7"/>
-      <c r="D676" s="27"/>
+      <c r="D676" s="25"/>
       <c r="E676" s="7"/>
     </row>
     <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="7"/>
-      <c r="D677" s="27"/>
+      <c r="D677" s="25"/>
       <c r="E677" s="7"/>
     </row>
     <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="7"/>
-      <c r="D678" s="27"/>
+      <c r="D678" s="25"/>
       <c r="E678" s="7"/>
     </row>
     <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="7"/>
-      <c r="D679" s="27"/>
+      <c r="D679" s="25"/>
       <c r="E679" s="7"/>
     </row>
     <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="7"/>
-      <c r="D680" s="27"/>
+      <c r="D680" s="25"/>
       <c r="E680" s="7"/>
     </row>
     <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="7"/>
-      <c r="D681" s="27"/>
+      <c r="D681" s="25"/>
       <c r="E681" s="7"/>
     </row>
     <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="7"/>
-      <c r="D682" s="27"/>
+      <c r="D682" s="25"/>
       <c r="E682" s="7"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="7"/>
-      <c r="D683" s="27"/>
+      <c r="D683" s="25"/>
       <c r="E683" s="7"/>
     </row>
     <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="7"/>
-      <c r="D684" s="27"/>
+      <c r="D684" s="25"/>
       <c r="E684" s="7"/>
     </row>
     <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="7"/>
-      <c r="D685" s="27"/>
+      <c r="D685" s="25"/>
       <c r="E685" s="7"/>
     </row>
     <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="7"/>
-      <c r="D686" s="27"/>
+      <c r="D686" s="25"/>
       <c r="E686" s="7"/>
     </row>
     <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="7"/>
-      <c r="D687" s="27"/>
+      <c r="D687" s="25"/>
       <c r="E687" s="7"/>
     </row>
     <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="7"/>
-      <c r="D688" s="27"/>
+      <c r="D688" s="25"/>
       <c r="E688" s="7"/>
     </row>
     <row r="689" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="7"/>
-      <c r="D689" s="27"/>
+      <c r="D689" s="25"/>
       <c r="E689" s="7"/>
     </row>
     <row r="690" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="7"/>
-      <c r="D690" s="27"/>
+      <c r="D690" s="25"/>
       <c r="E690" s="7"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="7"/>
-      <c r="D691" s="27"/>
+      <c r="D691" s="25"/>
       <c r="E691" s="7"/>
     </row>
     <row r="692" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="7"/>
-      <c r="D692" s="27"/>
+      <c r="D692" s="25"/>
       <c r="E692" s="7"/>
     </row>
     <row r="693" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="7"/>
-      <c r="D693" s="27"/>
+      <c r="D693" s="25"/>
       <c r="E693" s="7"/>
     </row>
     <row r="694" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="7"/>
-      <c r="D694" s="27"/>
+      <c r="D694" s="25"/>
       <c r="E694" s="7"/>
     </row>
     <row r="695" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="7"/>
-      <c r="D695" s="27"/>
+      <c r="D695" s="25"/>
       <c r="E695" s="7"/>
     </row>
     <row r="696" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="7"/>
-      <c r="D696" s="27"/>
+      <c r="D696" s="25"/>
       <c r="E696" s="7"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="7"/>
-      <c r="D697" s="27"/>
+      <c r="D697" s="25"/>
       <c r="E697" s="7"/>
     </row>
     <row r="698" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="7"/>
-      <c r="D698" s="27"/>
+      <c r="D698" s="25"/>
       <c r="E698" s="7"/>
     </row>
     <row r="699" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="7"/>
-      <c r="D699" s="27"/>
+      <c r="D699" s="25"/>
       <c r="E699" s="7"/>
     </row>
     <row r="700" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="7"/>
-      <c r="D700" s="27"/>
+      <c r="D700" s="25"/>
       <c r="E700" s="7"/>
     </row>
     <row r="701" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="7"/>
-      <c r="D701" s="27"/>
+      <c r="D701" s="25"/>
       <c r="E701" s="7"/>
     </row>
     <row r="702" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="7"/>
-      <c r="D702" s="27"/>
+      <c r="D702" s="25"/>
       <c r="E702" s="7"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="7"/>
-      <c r="D703" s="27"/>
+      <c r="D703" s="25"/>
       <c r="E703" s="7"/>
     </row>
     <row r="704" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="7"/>
-      <c r="D704" s="27"/>
+      <c r="D704" s="25"/>
       <c r="E704" s="7"/>
     </row>
     <row r="705" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="7"/>
-      <c r="D705" s="27"/>
+      <c r="D705" s="25"/>
       <c r="E705" s="7"/>
     </row>
     <row r="706" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="7"/>
-      <c r="D706" s="27"/>
+      <c r="D706" s="25"/>
       <c r="E706" s="7"/>
     </row>
     <row r="707" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="7"/>
-      <c r="D707" s="27"/>
+      <c r="D707" s="25"/>
       <c r="E707" s="7"/>
     </row>
     <row r="708" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="7"/>
-      <c r="D708" s="27"/>
+      <c r="D708" s="25"/>
       <c r="E708" s="7"/>
     </row>
     <row r="709" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="7"/>
-      <c r="D709" s="27"/>
+      <c r="D709" s="25"/>
       <c r="E709" s="7"/>
     </row>
     <row r="710" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="7"/>
-      <c r="D710" s="27"/>
+      <c r="D710" s="25"/>
       <c r="E710" s="7"/>
     </row>
     <row r="711" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="7"/>
-      <c r="D711" s="27"/>
+      <c r="D711" s="25"/>
       <c r="E711" s="7"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="7"/>
-      <c r="D712" s="27"/>
+      <c r="D712" s="25"/>
       <c r="E712" s="7"/>
     </row>
     <row r="713" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="7"/>
-      <c r="D713" s="27"/>
+      <c r="D713" s="25"/>
       <c r="E713" s="7"/>
     </row>
     <row r="714" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="7"/>
-      <c r="D714" s="27"/>
+      <c r="D714" s="25"/>
       <c r="E714" s="7"/>
     </row>
     <row r="715" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="7"/>
-      <c r="D715" s="27"/>
+      <c r="D715" s="25"/>
       <c r="E715" s="7"/>
     </row>
     <row r="716" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="7"/>
-      <c r="D716" s="27"/>
+      <c r="D716" s="25"/>
       <c r="E716" s="7"/>
     </row>
     <row r="717" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="7"/>
-      <c r="D717" s="27"/>
+      <c r="D717" s="25"/>
       <c r="E717" s="7"/>
     </row>
     <row r="718" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="7"/>
-      <c r="D718" s="27"/>
+      <c r="D718" s="25"/>
       <c r="E718" s="7"/>
     </row>
     <row r="719" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="7"/>
-      <c r="D719" s="27"/>
+      <c r="D719" s="25"/>
       <c r="E719" s="7"/>
     </row>
     <row r="720" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="7"/>
-      <c r="D720" s="27"/>
+      <c r="D720" s="25"/>
       <c r="E720" s="7"/>
     </row>
     <row r="721" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="7"/>
-      <c r="D721" s="27"/>
+      <c r="D721" s="25"/>
       <c r="E721" s="7"/>
     </row>
     <row r="722" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="7"/>
-      <c r="D722" s="27"/>
+      <c r="D722" s="25"/>
       <c r="E722" s="7"/>
     </row>
     <row r="723" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="7"/>
-      <c r="D723" s="27"/>
+      <c r="D723" s="25"/>
       <c r="E723" s="7"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="7"/>
-      <c r="D724" s="27"/>
+      <c r="D724" s="25"/>
       <c r="E724" s="7"/>
     </row>
     <row r="725" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="7"/>
-      <c r="D725" s="27"/>
+      <c r="D725" s="25"/>
       <c r="E725" s="7"/>
     </row>
     <row r="726" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="7"/>
-      <c r="D726" s="27"/>
+      <c r="D726" s="25"/>
       <c r="E726" s="7"/>
     </row>
     <row r="727" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="7"/>
-      <c r="D727" s="27"/>
+      <c r="D727" s="25"/>
       <c r="E727" s="7"/>
     </row>
     <row r="728" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="7"/>
-      <c r="D728" s="27"/>
+      <c r="D728" s="25"/>
       <c r="E728" s="7"/>
     </row>
     <row r="729" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="7"/>
-      <c r="D729" s="27"/>
+      <c r="D729" s="25"/>
       <c r="E729" s="7"/>
     </row>
     <row r="730" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="7"/>
-      <c r="D730" s="27"/>
+      <c r="D730" s="25"/>
       <c r="E730" s="7"/>
     </row>
     <row r="731" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="7"/>
-      <c r="D731" s="27"/>
+      <c r="D731" s="25"/>
       <c r="E731" s="7"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="7"/>
-      <c r="D732" s="27"/>
+      <c r="D732" s="25"/>
       <c r="E732" s="7"/>
     </row>
     <row r="733" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="7"/>
-      <c r="D733" s="27"/>
+      <c r="D733" s="25"/>
       <c r="E733" s="7"/>
     </row>
     <row r="734" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="7"/>
-      <c r="D734" s="27"/>
+      <c r="D734" s="25"/>
       <c r="E734" s="7"/>
     </row>
     <row r="735" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="7"/>
-      <c r="D735" s="27"/>
+      <c r="D735" s="25"/>
       <c r="E735" s="7"/>
     </row>
     <row r="736" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="7"/>
-      <c r="D736" s="27"/>
+      <c r="D736" s="25"/>
       <c r="E736" s="7"/>
     </row>
     <row r="737" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="7"/>
-      <c r="D737" s="27"/>
+      <c r="D737" s="25"/>
       <c r="E737" s="7"/>
     </row>
     <row r="738" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="7"/>
-      <c r="D738" s="27"/>
+      <c r="D738" s="25"/>
       <c r="E738" s="7"/>
     </row>
     <row r="739" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="7"/>
-      <c r="D739" s="27"/>
+      <c r="D739" s="25"/>
       <c r="E739" s="7"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="7"/>
-      <c r="D740" s="27"/>
+      <c r="D740" s="25"/>
       <c r="E740" s="7"/>
     </row>
     <row r="741" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="7"/>
-      <c r="D741" s="27"/>
+      <c r="D741" s="25"/>
       <c r="E741" s="7"/>
     </row>
     <row r="742" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="7"/>
-      <c r="D742" s="27"/>
+      <c r="D742" s="25"/>
       <c r="E742" s="7"/>
     </row>
     <row r="743" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="7"/>
-      <c r="D743" s="27"/>
+      <c r="D743" s="25"/>
       <c r="E743" s="7"/>
     </row>
     <row r="744" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="7"/>
-      <c r="D744" s="27"/>
+      <c r="D744" s="25"/>
       <c r="E744" s="7"/>
     </row>
     <row r="745" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="7"/>
-      <c r="D745" s="27"/>
+      <c r="D745" s="25"/>
       <c r="E745" s="7"/>
     </row>
     <row r="746" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="7"/>
-      <c r="D746" s="27"/>
+      <c r="D746" s="25"/>
       <c r="E746" s="7"/>
     </row>
     <row r="747" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="7"/>
-      <c r="D747" s="27"/>
+      <c r="D747" s="25"/>
       <c r="E747" s="7"/>
     </row>
     <row r="748" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="7"/>
-      <c r="D748" s="27"/>
+      <c r="D748" s="25"/>
       <c r="E748" s="7"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="7"/>
-      <c r="D749" s="27"/>
+      <c r="D749" s="25"/>
       <c r="E749" s="7"/>
     </row>
     <row r="750" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="7"/>
-      <c r="D750" s="27"/>
+      <c r="D750" s="25"/>
       <c r="E750" s="7"/>
     </row>
     <row r="751" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="7"/>
-      <c r="D751" s="27"/>
+      <c r="D751" s="25"/>
       <c r="E751" s="7"/>
     </row>
     <row r="752" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="7"/>
-      <c r="D752" s="27"/>
+      <c r="D752" s="25"/>
       <c r="E752" s="7"/>
     </row>
     <row r="753" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="7"/>
-      <c r="D753" s="27"/>
+      <c r="D753" s="25"/>
       <c r="E753" s="7"/>
     </row>
     <row r="754" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="7"/>
-      <c r="D754" s="27"/>
+      <c r="D754" s="25"/>
       <c r="E754" s="7"/>
     </row>
     <row r="755" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="7"/>
-      <c r="D755" s="27"/>
+      <c r="D755" s="25"/>
       <c r="E755" s="7"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="7"/>
-      <c r="D756" s="27"/>
+      <c r="D756" s="25"/>
       <c r="E756" s="7"/>
     </row>
     <row r="757" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="7"/>
-      <c r="D757" s="27"/>
+      <c r="D757" s="25"/>
       <c r="E757" s="7"/>
     </row>
     <row r="758" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="7"/>
-      <c r="D758" s="27"/>
+      <c r="D758" s="25"/>
       <c r="E758" s="7"/>
     </row>
     <row r="759" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="7"/>
-      <c r="D759" s="27"/>
+      <c r="D759" s="25"/>
       <c r="E759" s="7"/>
     </row>
     <row r="760" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="7"/>
-      <c r="D760" s="27"/>
+      <c r="D760" s="25"/>
       <c r="E760" s="7"/>
     </row>
     <row r="761" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="7"/>
-      <c r="D761" s="27"/>
+      <c r="D761" s="25"/>
       <c r="E761" s="7"/>
     </row>
     <row r="762" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="7"/>
-      <c r="D762" s="27"/>
+      <c r="D762" s="25"/>
       <c r="E762" s="7"/>
     </row>
     <row r="763" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="7"/>
-      <c r="D763" s="27"/>
+      <c r="D763" s="25"/>
       <c r="E763" s="7"/>
     </row>
     <row r="764" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="7"/>
-      <c r="D764" s="27"/>
+      <c r="D764" s="25"/>
       <c r="E764" s="7"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="7"/>
-      <c r="D765" s="27"/>
+      <c r="D765" s="25"/>
       <c r="E765" s="7"/>
     </row>
     <row r="766" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="7"/>
-      <c r="D766" s="27"/>
+      <c r="D766" s="25"/>
       <c r="E766" s="7"/>
     </row>
     <row r="767" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="7"/>
-      <c r="D767" s="27"/>
+      <c r="D767" s="25"/>
       <c r="E767" s="7"/>
     </row>
     <row r="768" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="7"/>
-      <c r="D768" s="27"/>
+      <c r="D768" s="25"/>
       <c r="E768" s="7"/>
     </row>
     <row r="769" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="7"/>
-      <c r="D769" s="27"/>
+      <c r="D769" s="25"/>
       <c r="E769" s="7"/>
     </row>
     <row r="770" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="7"/>
-      <c r="D770" s="27"/>
+      <c r="D770" s="25"/>
       <c r="E770" s="7"/>
     </row>
     <row r="771" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="7"/>
-      <c r="D771" s="27"/>
+      <c r="D771" s="25"/>
       <c r="E771" s="7"/>
     </row>
     <row r="772" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="7"/>
-      <c r="D772" s="27"/>
+      <c r="D772" s="25"/>
       <c r="E772" s="7"/>
     </row>
     <row r="773" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7"/>
-      <c r="D773" s="27"/>
+      <c r="D773" s="25"/>
       <c r="E773" s="7"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="7"/>
-      <c r="D774" s="27"/>
+      <c r="D774" s="25"/>
       <c r="E774" s="7"/>
     </row>
     <row r="775" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="7"/>
-      <c r="D775" s="27"/>
+      <c r="D775" s="25"/>
       <c r="E775" s="7"/>
     </row>
     <row r="776" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="7"/>
-      <c r="D776" s="27"/>
+      <c r="D776" s="25"/>
       <c r="E776" s="7"/>
     </row>
     <row r="777" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="7"/>
-      <c r="D777" s="27"/>
+      <c r="D777" s="25"/>
       <c r="E777" s="7"/>
     </row>
     <row r="778" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="7"/>
-      <c r="D778" s="27"/>
+      <c r="D778" s="25"/>
       <c r="E778" s="7"/>
     </row>
     <row r="779" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="7"/>
-      <c r="D779" s="27"/>
+      <c r="D779" s="25"/>
       <c r="E779" s="7"/>
     </row>
     <row r="780" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="7"/>
-      <c r="D780" s="27"/>
+      <c r="D780" s="25"/>
       <c r="E780" s="7"/>
     </row>
     <row r="781" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7"/>
-      <c r="D781" s="27"/>
+      <c r="D781" s="25"/>
       <c r="E781" s="7"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="7"/>
-      <c r="D782" s="27"/>
+      <c r="D782" s="25"/>
       <c r="E782" s="7"/>
     </row>
     <row r="783" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="7"/>
-      <c r="D783" s="27"/>
+      <c r="D783" s="25"/>
       <c r="E783" s="7"/>
     </row>
     <row r="784" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="7"/>
-      <c r="D784" s="27"/>
+      <c r="D784" s="25"/>
       <c r="E784" s="7"/>
     </row>
     <row r="785" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="7"/>
-      <c r="D785" s="27"/>
+      <c r="D785" s="25"/>
       <c r="E785" s="7"/>
     </row>
     <row r="786" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="7"/>
-      <c r="D786" s="27"/>
+      <c r="D786" s="25"/>
       <c r="E786" s="7"/>
     </row>
     <row r="787" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="7"/>
-      <c r="D787" s="27"/>
+      <c r="D787" s="25"/>
       <c r="E787" s="7"/>
     </row>
     <row r="788" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="7"/>
-      <c r="D788" s="27"/>
+      <c r="D788" s="25"/>
       <c r="E788" s="7"/>
     </row>
     <row r="789" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="7"/>
-      <c r="D789" s="27"/>
+      <c r="D789" s="25"/>
       <c r="E789" s="7"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="7"/>
-      <c r="D790" s="27"/>
+      <c r="D790" s="25"/>
       <c r="E790" s="7"/>
     </row>
     <row r="791" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="7"/>
-      <c r="D791" s="27"/>
+      <c r="D791" s="25"/>
       <c r="E791" s="7"/>
     </row>
     <row r="792" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="7"/>
-      <c r="D792" s="27"/>
+      <c r="D792" s="25"/>
       <c r="E792" s="7"/>
     </row>
     <row r="793" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="7"/>
-      <c r="D793" s="27"/>
+      <c r="D793" s="25"/>
       <c r="E793" s="7"/>
     </row>
     <row r="794" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="7"/>
-      <c r="D794" s="27"/>
+      <c r="D794" s="25"/>
       <c r="E794" s="7"/>
     </row>
     <row r="795" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="7"/>
-      <c r="D795" s="27"/>
+      <c r="D795" s="25"/>
       <c r="E795" s="7"/>
     </row>
     <row r="796" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="7"/>
-      <c r="D796" s="27"/>
+      <c r="D796" s="25"/>
       <c r="E796" s="7"/>
     </row>
     <row r="797" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="7"/>
-      <c r="D797" s="27"/>
+      <c r="D797" s="25"/>
       <c r="E797" s="7"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="7"/>
-      <c r="D798" s="27"/>
+      <c r="D798" s="25"/>
       <c r="E798" s="7"/>
     </row>
     <row r="799" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="7"/>
-      <c r="D799" s="27"/>
+      <c r="D799" s="25"/>
       <c r="E799" s="7"/>
     </row>
     <row r="800" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="7"/>
-      <c r="D800" s="27"/>
+      <c r="D800" s="25"/>
       <c r="E800" s="7"/>
     </row>
     <row r="801" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="7"/>
-      <c r="D801" s="27"/>
+      <c r="D801" s="25"/>
       <c r="E801" s="7"/>
     </row>
     <row r="802" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="7"/>
-      <c r="D802" s="27"/>
+      <c r="D802" s="25"/>
       <c r="E802" s="7"/>
     </row>
     <row r="803" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="7"/>
-      <c r="D803" s="27"/>
+      <c r="D803" s="25"/>
       <c r="E803" s="7"/>
     </row>
     <row r="804" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="7"/>
-      <c r="D804" s="27"/>
+      <c r="D804" s="25"/>
       <c r="E804" s="7"/>
     </row>
     <row r="805" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="7"/>
-      <c r="D805" s="27"/>
+      <c r="D805" s="25"/>
       <c r="E805" s="7"/>
     </row>
     <row r="806" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="7"/>
-      <c r="D806" s="27"/>
+      <c r="D806" s="25"/>
       <c r="E806" s="7"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="7"/>
-      <c r="D807" s="27"/>
+      <c r="D807" s="25"/>
       <c r="E807" s="7"/>
     </row>
     <row r="808" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="7"/>
-      <c r="D808" s="27"/>
+      <c r="D808" s="25"/>
       <c r="E808" s="7"/>
     </row>
     <row r="809" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="7"/>
-      <c r="D809" s="27"/>
+      <c r="D809" s="25"/>
       <c r="E809" s="7"/>
     </row>
     <row r="810" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="7"/>
-      <c r="D810" s="27"/>
+      <c r="D810" s="25"/>
       <c r="E810" s="7"/>
     </row>
     <row r="811" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="7"/>
-      <c r="D811" s="27"/>
+      <c r="D811" s="25"/>
       <c r="E811" s="7"/>
     </row>
     <row r="812" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="7"/>
-      <c r="D812" s="27"/>
+      <c r="D812" s="25"/>
       <c r="E812" s="7"/>
     </row>
     <row r="813" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="7"/>
-      <c r="D813" s="27"/>
+      <c r="D813" s="25"/>
       <c r="E813" s="7"/>
     </row>
     <row r="814" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="7"/>
-      <c r="D814" s="27"/>
+      <c r="D814" s="25"/>
       <c r="E814" s="7"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="7"/>
-      <c r="D815" s="27"/>
+      <c r="D815" s="25"/>
       <c r="E815" s="7"/>
     </row>
     <row r="816" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="7"/>
-      <c r="D816" s="27"/>
+      <c r="D816" s="25"/>
       <c r="E816" s="7"/>
     </row>
     <row r="817" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="7"/>
-      <c r="D817" s="27"/>
+      <c r="D817" s="25"/>
       <c r="E817" s="7"/>
     </row>
     <row r="818" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="7"/>
-      <c r="D818" s="27"/>
+      <c r="D818" s="25"/>
       <c r="E818" s="7"/>
     </row>
     <row r="819" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="7"/>
-      <c r="D819" s="27"/>
+      <c r="D819" s="25"/>
       <c r="E819" s="7"/>
     </row>
     <row r="820" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="7"/>
-      <c r="D820" s="27"/>
+      <c r="D820" s="25"/>
       <c r="E820" s="7"/>
     </row>
     <row r="821" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="7"/>
-      <c r="D821" s="27"/>
+      <c r="D821" s="25"/>
       <c r="E821" s="7"/>
     </row>
     <row r="822" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="7"/>
-      <c r="D822" s="27"/>
+      <c r="D822" s="25"/>
       <c r="E822" s="7"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="7"/>
-      <c r="D823" s="27"/>
+      <c r="D823" s="25"/>
       <c r="E823" s="7"/>
     </row>
     <row r="824" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="7"/>
-      <c r="D824" s="27"/>
+      <c r="D824" s="25"/>
       <c r="E824" s="7"/>
     </row>
     <row r="825" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="7"/>
-      <c r="D825" s="27"/>
+      <c r="D825" s="25"/>
       <c r="E825" s="7"/>
     </row>
     <row r="826" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="7"/>
-      <c r="D826" s="27"/>
+      <c r="D826" s="25"/>
       <c r="E826" s="7"/>
     </row>
     <row r="827" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="7"/>
-      <c r="D827" s="27"/>
+      <c r="D827" s="25"/>
       <c r="E827" s="7"/>
     </row>
     <row r="828" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="7"/>
-      <c r="D828" s="27"/>
+      <c r="D828" s="25"/>
       <c r="E828" s="7"/>
     </row>
     <row r="829" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="7"/>
-      <c r="D829" s="27"/>
+      <c r="D829" s="25"/>
       <c r="E829" s="7"/>
     </row>
     <row r="830" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="7"/>
-      <c r="D830" s="27"/>
+      <c r="D830" s="25"/>
       <c r="E830" s="7"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="7"/>
-      <c r="D831" s="27"/>
+      <c r="D831" s="25"/>
       <c r="E831" s="7"/>
     </row>
     <row r="832" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="7"/>
-      <c r="D832" s="27"/>
+      <c r="D832" s="25"/>
       <c r="E832" s="7"/>
     </row>
     <row r="833" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="7"/>
-      <c r="D833" s="27"/>
+      <c r="D833" s="25"/>
       <c r="E833" s="7"/>
     </row>
     <row r="834" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="7"/>
-      <c r="D834" s="27"/>
+      <c r="D834" s="25"/>
       <c r="E834" s="7"/>
     </row>
     <row r="835" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="7"/>
-      <c r="D835" s="27"/>
+      <c r="D835" s="25"/>
       <c r="E835" s="7"/>
     </row>
     <row r="836" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="7"/>
-      <c r="D836" s="27"/>
+      <c r="D836" s="25"/>
       <c r="E836" s="7"/>
     </row>
     <row r="837" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="7"/>
-      <c r="D837" s="27"/>
+      <c r="D837" s="25"/>
       <c r="E837" s="7"/>
     </row>
     <row r="838" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="7"/>
-      <c r="D838" s="27"/>
+      <c r="D838" s="25"/>
       <c r="E838" s="7"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="7"/>
-      <c r="D839" s="27"/>
+      <c r="D839" s="25"/>
       <c r="E839" s="7"/>
     </row>
     <row r="840" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="7"/>
-      <c r="D840" s="27"/>
+      <c r="D840" s="25"/>
       <c r="E840" s="7"/>
     </row>
     <row r="841" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="7"/>
-      <c r="D841" s="27"/>
+      <c r="D841" s="25"/>
       <c r="E841" s="7"/>
     </row>
     <row r="842" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="7"/>
-      <c r="D842" s="27"/>
+      <c r="D842" s="25"/>
       <c r="E842" s="7"/>
     </row>
     <row r="843" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="7"/>
-      <c r="D843" s="27"/>
+      <c r="D843" s="25"/>
       <c r="E843" s="7"/>
     </row>
     <row r="844" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="7"/>
-      <c r="D844" s="27"/>
+      <c r="D844" s="25"/>
       <c r="E844" s="7"/>
     </row>
     <row r="845" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="7"/>
-      <c r="D845" s="27"/>
+      <c r="D845" s="25"/>
       <c r="E845" s="7"/>
     </row>
     <row r="846" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="7"/>
-      <c r="D846" s="27"/>
+      <c r="D846" s="25"/>
       <c r="E846" s="7"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="7"/>
-      <c r="D847" s="27"/>
+      <c r="D847" s="25"/>
       <c r="E847" s="7"/>
     </row>
     <row r="848" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="7"/>
-      <c r="D848" s="27"/>
+      <c r="D848" s="25"/>
       <c r="E848" s="7"/>
     </row>
     <row r="849" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="7"/>
-      <c r="D849" s="27"/>
+      <c r="D849" s="25"/>
       <c r="E849" s="7"/>
     </row>
     <row r="850" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="7"/>
-      <c r="D850" s="27"/>
+      <c r="D850" s="25"/>
       <c r="E850" s="7"/>
     </row>
     <row r="851" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="7"/>
-      <c r="D851" s="27"/>
+      <c r="D851" s="25"/>
       <c r="E851" s="7"/>
     </row>
     <row r="852" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="7"/>
-      <c r="D852" s="27"/>
+      <c r="D852" s="25"/>
       <c r="E852" s="7"/>
     </row>
     <row r="853" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="7"/>
-      <c r="D853" s="27"/>
+      <c r="D853" s="25"/>
       <c r="E853" s="7"/>
     </row>
     <row r="854" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="7"/>
-      <c r="D854" s="27"/>
+      <c r="D854" s="25"/>
       <c r="E854" s="7"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="7"/>
-      <c r="D855" s="27"/>
+      <c r="D855" s="25"/>
       <c r="E855" s="7"/>
     </row>
     <row r="856" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="7"/>
-      <c r="D856" s="27"/>
+      <c r="D856" s="25"/>
       <c r="E856" s="7"/>
     </row>
     <row r="857" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="7"/>
-      <c r="D857" s="27"/>
+      <c r="D857" s="25"/>
       <c r="E857" s="7"/>
     </row>
     <row r="858" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="7"/>
-      <c r="D858" s="27"/>
+      <c r="D858" s="25"/>
       <c r="E858" s="7"/>
     </row>
     <row r="859" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="7"/>
-      <c r="D859" s="27"/>
+      <c r="D859" s="25"/>
       <c r="E859" s="7"/>
     </row>
     <row r="860" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="7"/>
-      <c r="D860" s="27"/>
+      <c r="D860" s="25"/>
       <c r="E860" s="7"/>
     </row>
     <row r="861" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="7"/>
-      <c r="D861" s="27"/>
+      <c r="D861" s="25"/>
       <c r="E861" s="7"/>
     </row>
     <row r="862" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="7"/>
-      <c r="D862" s="27"/>
+      <c r="D862" s="25"/>
       <c r="E862" s="7"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="7"/>
-      <c r="D863" s="27"/>
+      <c r="D863" s="25"/>
       <c r="E863" s="7"/>
     </row>
     <row r="864" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="7"/>
-      <c r="D864" s="27"/>
+      <c r="D864" s="25"/>
       <c r="E864" s="7"/>
     </row>
     <row r="865" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="7"/>
-      <c r="D865" s="27"/>
+      <c r="D865" s="25"/>
       <c r="E865" s="7"/>
     </row>
     <row r="866" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="7"/>
-      <c r="D866" s="27"/>
+      <c r="D866" s="25"/>
       <c r="E866" s="7"/>
     </row>
     <row r="867" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="7"/>
-      <c r="D867" s="27"/>
+      <c r="D867" s="25"/>
       <c r="E867" s="7"/>
     </row>
     <row r="868" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="7"/>
-      <c r="D868" s="27"/>
+      <c r="D868" s="25"/>
       <c r="E868" s="7"/>
     </row>
     <row r="869" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="7"/>
-      <c r="D869" s="27"/>
+      <c r="D869" s="25"/>
       <c r="E869" s="7"/>
     </row>
     <row r="870" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="7"/>
-      <c r="D870" s="27"/>
+      <c r="D870" s="25"/>
       <c r="E870" s="7"/>
     </row>
     <row r="871" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="7"/>
-      <c r="D871" s="27"/>
+      <c r="D871" s="25"/>
       <c r="E871" s="7"/>
     </row>
     <row r="872" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="7"/>
-      <c r="D872" s="27"/>
+      <c r="D872" s="25"/>
       <c r="E872" s="7"/>
     </row>
     <row r="873" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="7"/>
-      <c r="D873" s="27"/>
+      <c r="D873" s="25"/>
       <c r="E873" s="7"/>
     </row>
     <row r="874" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="7"/>
-      <c r="D874" s="27"/>
+      <c r="D874" s="25"/>
       <c r="E874" s="7"/>
     </row>
     <row r="875" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="7"/>
-      <c r="D875" s="27"/>
+      <c r="D875" s="25"/>
       <c r="E875" s="7"/>
     </row>
     <row r="876" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="7"/>
-      <c r="D876" s="27"/>
+      <c r="D876" s="25"/>
       <c r="E876" s="7"/>
     </row>
     <row r="877" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="7"/>
-      <c r="D877" s="27"/>
+      <c r="D877" s="25"/>
       <c r="E877" s="7"/>
     </row>
     <row r="878" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="7"/>
-      <c r="D878" s="27"/>
+      <c r="D878" s="25"/>
       <c r="E878" s="7"/>
     </row>
     <row r="879" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="7"/>
-      <c r="D879" s="27"/>
+      <c r="D879" s="25"/>
       <c r="E879" s="7"/>
     </row>
     <row r="880" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="7"/>
-      <c r="D880" s="27"/>
+      <c r="D880" s="25"/>
       <c r="E880" s="7"/>
     </row>
     <row r="881" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="7"/>
-      <c r="D881" s="27"/>
+      <c r="D881" s="25"/>
       <c r="E881" s="7"/>
     </row>
     <row r="882" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="7"/>
-      <c r="D882" s="27"/>
+      <c r="D882" s="25"/>
       <c r="E882" s="7"/>
     </row>
     <row r="883" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="7"/>
-      <c r="D883" s="27"/>
+      <c r="D883" s="25"/>
       <c r="E883" s="7"/>
     </row>
     <row r="884" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="7"/>
-      <c r="D884" s="27"/>
+      <c r="D884" s="25"/>
       <c r="E884" s="7"/>
     </row>
     <row r="885" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="7"/>
-      <c r="D885" s="27"/>
+      <c r="D885" s="25"/>
       <c r="E885" s="7"/>
     </row>
     <row r="886" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="7"/>
-      <c r="D886" s="27"/>
+      <c r="D886" s="25"/>
       <c r="E886" s="7"/>
     </row>
     <row r="887" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="7"/>
-      <c r="D887" s="27"/>
+      <c r="D887" s="25"/>
       <c r="E887" s="7"/>
     </row>
     <row r="888" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="7"/>
-      <c r="D888" s="27"/>
+      <c r="D888" s="25"/>
       <c r="E888" s="7"/>
     </row>
     <row r="889" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="7"/>
-      <c r="D889" s="27"/>
+      <c r="D889" s="25"/>
       <c r="E889" s="7"/>
     </row>
     <row r="890" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="7"/>
-      <c r="D890" s="27"/>
+      <c r="D890" s="25"/>
       <c r="E890" s="7"/>
     </row>
     <row r="891" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="7"/>
-      <c r="D891" s="27"/>
+      <c r="D891" s="25"/>
       <c r="E891" s="7"/>
     </row>
     <row r="892" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="7"/>
-      <c r="D892" s="27"/>
+      <c r="D892" s="25"/>
       <c r="E892" s="7"/>
     </row>
     <row r="893" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="7"/>
-      <c r="D893" s="27"/>
+      <c r="D893" s="25"/>
       <c r="E893" s="7"/>
     </row>
     <row r="894" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="7"/>
-      <c r="D894" s="27"/>
+      <c r="D894" s="25"/>
       <c r="E894" s="7"/>
     </row>
     <row r="895" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="7"/>
-      <c r="D895" s="27"/>
+      <c r="D895" s="25"/>
       <c r="E895" s="7"/>
     </row>
     <row r="896" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="7"/>
-      <c r="D896" s="27"/>
+      <c r="D896" s="25"/>
       <c r="E896" s="7"/>
     </row>
     <row r="897" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="7"/>
-      <c r="D897" s="27"/>
+      <c r="D897" s="25"/>
       <c r="E897" s="7"/>
     </row>
     <row r="898" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="7"/>
-      <c r="D898" s="27"/>
+      <c r="D898" s="25"/>
       <c r="E898" s="7"/>
     </row>
     <row r="899" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="7"/>
-      <c r="D899" s="27"/>
+      <c r="D899" s="25"/>
       <c r="E899" s="7"/>
     </row>
     <row r="900" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="7"/>
-      <c r="D900" s="27"/>
+      <c r="D900" s="25"/>
       <c r="E900" s="7"/>
     </row>
     <row r="901" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="7"/>
-      <c r="D901" s="27"/>
+      <c r="D901" s="25"/>
       <c r="E901" s="7"/>
     </row>
     <row r="902" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="7"/>
-      <c r="D902" s="27"/>
+      <c r="D902" s="25"/>
       <c r="E902" s="7"/>
     </row>
     <row r="903" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="7"/>
-      <c r="D903" s="27"/>
+      <c r="D903" s="25"/>
       <c r="E903" s="7"/>
     </row>
     <row r="904" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="7"/>
-      <c r="D904" s="27"/>
+      <c r="D904" s="25"/>
       <c r="E904" s="7"/>
     </row>
     <row r="905" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="7"/>
-      <c r="D905" s="27"/>
+      <c r="D905" s="25"/>
       <c r="E905" s="7"/>
     </row>
     <row r="906" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="7"/>
-      <c r="D906" s="27"/>
+      <c r="D906" s="25"/>
       <c r="E906" s="7"/>
     </row>
     <row r="907" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="7"/>
-      <c r="D907" s="27"/>
+      <c r="D907" s="25"/>
       <c r="E907" s="7"/>
     </row>
     <row r="908" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="7"/>
-      <c r="D908" s="27"/>
+      <c r="D908" s="25"/>
       <c r="E908" s="7"/>
     </row>
     <row r="909" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="7"/>
-      <c r="D909" s="27"/>
+      <c r="D909" s="25"/>
       <c r="E909" s="7"/>
     </row>
     <row r="910" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="7"/>
-      <c r="D910" s="27"/>
+      <c r="D910" s="25"/>
       <c r="E910" s="7"/>
     </row>
     <row r="911" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="7"/>
-      <c r="D911" s="27"/>
+      <c r="D911" s="25"/>
       <c r="E911" s="7"/>
     </row>
     <row r="912" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="7"/>
-      <c r="D912" s="27"/>
+      <c r="D912" s="25"/>
       <c r="E912" s="7"/>
     </row>
     <row r="913" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="7"/>
-      <c r="D913" s="27"/>
+      <c r="D913" s="25"/>
       <c r="E913" s="7"/>
     </row>
     <row r="914" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="7"/>
-      <c r="D914" s="27"/>
+      <c r="D914" s="25"/>
       <c r="E914" s="7"/>
     </row>
     <row r="915" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="7"/>
-      <c r="D915" s="27"/>
+      <c r="D915" s="25"/>
       <c r="E915" s="7"/>
     </row>
     <row r="916" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="7"/>
-      <c r="D916" s="27"/>
+      <c r="D916" s="25"/>
       <c r="E916" s="7"/>
     </row>
     <row r="917" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="7"/>
-      <c r="D917" s="27"/>
+      <c r="D917" s="25"/>
       <c r="E917" s="7"/>
     </row>
     <row r="918" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="7"/>
-      <c r="D918" s="27"/>
+      <c r="D918" s="25"/>
       <c r="E918" s="7"/>
     </row>
     <row r="919" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="7"/>
-      <c r="D919" s="27"/>
+      <c r="D919" s="25"/>
       <c r="E919" s="7"/>
     </row>
     <row r="920" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="7"/>
-      <c r="D920" s="27"/>
+      <c r="D920" s="25"/>
       <c r="E920" s="7"/>
     </row>
     <row r="921" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="7"/>
-      <c r="D921" s="27"/>
+      <c r="D921" s="25"/>
       <c r="E921" s="7"/>
     </row>
     <row r="922" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="7"/>
-      <c r="D922" s="27"/>
+      <c r="D922" s="25"/>
       <c r="E922" s="7"/>
     </row>
     <row r="923" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="7"/>
-      <c r="D923" s="27"/>
+      <c r="D923" s="25"/>
       <c r="E923" s="7"/>
     </row>
     <row r="924" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="7"/>
-      <c r="D924" s="27"/>
+      <c r="D924" s="25"/>
       <c r="E924" s="7"/>
     </row>
     <row r="925" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="7"/>
-      <c r="D925" s="27"/>
+      <c r="D925" s="25"/>
       <c r="E925" s="7"/>
     </row>
     <row r="926" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="7"/>
-      <c r="D926" s="27"/>
+      <c r="D926" s="25"/>
       <c r="E926" s="7"/>
     </row>
     <row r="927" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="7"/>
-      <c r="D927" s="27"/>
+      <c r="D927" s="25"/>
       <c r="E927" s="7"/>
     </row>
     <row r="928" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="7"/>
-      <c r="D928" s="27"/>
+      <c r="D928" s="25"/>
       <c r="E928" s="7"/>
     </row>
     <row r="929" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="7"/>
-      <c r="D929" s="27"/>
+      <c r="D929" s="25"/>
       <c r="E929" s="7"/>
     </row>
     <row r="930" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="7"/>
-      <c r="D930" s="27"/>
+      <c r="D930" s="25"/>
       <c r="E930" s="7"/>
     </row>
     <row r="931" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="7"/>
-      <c r="D931" s="27"/>
+      <c r="D931" s="25"/>
       <c r="E931" s="7"/>
     </row>
     <row r="932" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="7"/>
-      <c r="D932" s="27"/>
+      <c r="D932" s="25"/>
       <c r="E932" s="7"/>
     </row>
     <row r="933" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="7"/>
-      <c r="D933" s="27"/>
+      <c r="D933" s="25"/>
       <c r="E933" s="7"/>
     </row>
     <row r="934" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="7"/>
-      <c r="D934" s="27"/>
+      <c r="D934" s="25"/>
       <c r="E934" s="7"/>
     </row>
     <row r="935" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="7"/>
-      <c r="D935" s="27"/>
+      <c r="D935" s="25"/>
       <c r="E935" s="7"/>
     </row>
     <row r="936" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="7"/>
-      <c r="D936" s="27"/>
+      <c r="D936" s="25"/>
       <c r="E936" s="7"/>
     </row>
     <row r="937" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="7"/>
-      <c r="D937" s="27"/>
+      <c r="D937" s="25"/>
       <c r="E937" s="7"/>
     </row>
     <row r="938" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="7"/>
-      <c r="D938" s="27"/>
+      <c r="D938" s="25"/>
       <c r="E938" s="7"/>
     </row>
     <row r="939" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="7"/>
-      <c r="D939" s="27"/>
+      <c r="D939" s="25"/>
       <c r="E939" s="7"/>
     </row>
     <row r="940" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="7"/>
-      <c r="D940" s="27"/>
+      <c r="D940" s="25"/>
       <c r="E940" s="7"/>
     </row>
     <row r="941" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="7"/>
-      <c r="D941" s="27"/>
+      <c r="D941" s="25"/>
       <c r="E941" s="7"/>
     </row>
     <row r="942" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="7"/>
-      <c r="D942" s="27"/>
+      <c r="D942" s="25"/>
       <c r="E942" s="7"/>
     </row>
     <row r="943" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="7"/>
-      <c r="D943" s="27"/>
+      <c r="D943" s="25"/>
       <c r="E943" s="7"/>
     </row>
     <row r="944" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="7"/>
-      <c r="D944" s="27"/>
+      <c r="D944" s="25"/>
       <c r="E944" s="7"/>
     </row>
     <row r="945" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="7"/>
-      <c r="D945" s="27"/>
+      <c r="D945" s="25"/>
       <c r="E945" s="7"/>
     </row>
     <row r="946" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="7"/>
-      <c r="D946" s="27"/>
+      <c r="D946" s="25"/>
       <c r="E946" s="7"/>
     </row>
     <row r="947" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="7"/>
-      <c r="D947" s="27"/>
+      <c r="D947" s="25"/>
       <c r="E947" s="7"/>
     </row>
     <row r="948" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="7"/>
-      <c r="D948" s="27"/>
+      <c r="D948" s="25"/>
       <c r="E948" s="7"/>
     </row>
     <row r="949" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="7"/>
-      <c r="D949" s="27"/>
+      <c r="D949" s="25"/>
       <c r="E949" s="7"/>
     </row>
     <row r="950" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="7"/>
-      <c r="D950" s="27"/>
+      <c r="D950" s="25"/>
       <c r="E950" s="7"/>
     </row>
     <row r="951" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="7"/>
-      <c r="D951" s="27"/>
+      <c r="D951" s="25"/>
       <c r="E951" s="7"/>
     </row>
     <row r="952" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="7"/>
-      <c r="D952" s="27"/>
+      <c r="D952" s="25"/>
       <c r="E952" s="7"/>
     </row>
     <row r="953" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="7"/>
-      <c r="D953" s="27"/>
+      <c r="D953" s="25"/>
       <c r="E953" s="7"/>
     </row>
     <row r="954" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="7"/>
-      <c r="D954" s="27"/>
+      <c r="D954" s="25"/>
       <c r="E954" s="7"/>
     </row>
     <row r="955" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="7"/>
-      <c r="D955" s="27"/>
+      <c r="D955" s="25"/>
       <c r="E955" s="7"/>
     </row>
     <row r="956" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="7"/>
-      <c r="D956" s="27"/>
+      <c r="D956" s="25"/>
       <c r="E956" s="7"/>
     </row>
     <row r="957" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="7"/>
-      <c r="D957" s="27"/>
+      <c r="D957" s="25"/>
       <c r="E957" s="7"/>
     </row>
     <row r="958" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="7"/>
-      <c r="D958" s="27"/>
+      <c r="D958" s="25"/>
       <c r="E958" s="7"/>
     </row>
     <row r="959" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="7"/>
-      <c r="D959" s="27"/>
+      <c r="D959" s="25"/>
       <c r="E959" s="7"/>
     </row>
     <row r="960" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="7"/>
-      <c r="D960" s="27"/>
+      <c r="D960" s="25"/>
       <c r="E960" s="7"/>
     </row>
     <row r="961" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="7"/>
-      <c r="D961" s="27"/>
+      <c r="D961" s="25"/>
       <c r="E961" s="7"/>
     </row>
     <row r="962" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="7"/>
-      <c r="D962" s="27"/>
+      <c r="D962" s="25"/>
       <c r="E962" s="7"/>
     </row>
     <row r="963" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="7"/>
-      <c r="D963" s="27"/>
+      <c r="D963" s="25"/>
       <c r="E963" s="7"/>
     </row>
     <row r="964" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="7"/>
-      <c r="D964" s="27"/>
+      <c r="D964" s="25"/>
       <c r="E964" s="7"/>
     </row>
     <row r="965" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="7"/>
-      <c r="D965" s="27"/>
+      <c r="D965" s="25"/>
       <c r="E965" s="7"/>
     </row>
     <row r="966" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="7"/>
-      <c r="D966" s="27"/>
+      <c r="D966" s="25"/>
       <c r="E966" s="7"/>
     </row>
     <row r="967" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="7"/>
-      <c r="D967" s="27"/>
+      <c r="D967" s="25"/>
       <c r="E967" s="7"/>
     </row>
     <row r="968" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="7"/>
-      <c r="D968" s="27"/>
+      <c r="D968" s="25"/>
       <c r="E968" s="7"/>
     </row>
     <row r="969" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="7"/>
-      <c r="D969" s="27"/>
+      <c r="D969" s="25"/>
       <c r="E969" s="7"/>
     </row>
     <row r="970" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="7"/>
-      <c r="D970" s="27"/>
+      <c r="D970" s="25"/>
       <c r="E970" s="7"/>
     </row>
     <row r="971" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="7"/>
-      <c r="D971" s="27"/>
+      <c r="D971" s="25"/>
       <c r="E971" s="7"/>
     </row>
     <row r="972" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="7"/>
-      <c r="D972" s="27"/>
+      <c r="D972" s="25"/>
       <c r="E972" s="7"/>
     </row>
     <row r="973" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="7"/>
-      <c r="D973" s="27"/>
+      <c r="D973" s="25"/>
       <c r="E973" s="7"/>
     </row>
     <row r="974" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="7"/>
-      <c r="D974" s="27"/>
+      <c r="D974" s="25"/>
       <c r="E974" s="7"/>
     </row>
     <row r="975" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="7"/>
-      <c r="D975" s="27"/>
+      <c r="D975" s="25"/>
       <c r="E975" s="7"/>
     </row>
     <row r="976" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="7"/>
-      <c r="D976" s="27"/>
+      <c r="D976" s="25"/>
       <c r="E976" s="7"/>
     </row>
     <row r="977" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="7"/>
-      <c r="D977" s="27"/>
+      <c r="D977" s="25"/>
       <c r="E977" s="7"/>
     </row>
     <row r="978" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="7"/>
-      <c r="D978" s="27"/>
+      <c r="D978" s="25"/>
       <c r="E978" s="7"/>
     </row>
     <row r="979" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="7"/>
-      <c r="D979" s="27"/>
+      <c r="D979" s="25"/>
       <c r="E979" s="7"/>
     </row>
     <row r="980" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="7"/>
-      <c r="D980" s="27"/>
+      <c r="D980" s="25"/>
       <c r="E980" s="7"/>
     </row>
     <row r="981" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="7"/>
-      <c r="D981" s="27"/>
+      <c r="D981" s="25"/>
       <c r="E981" s="7"/>
     </row>
     <row r="982" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="7"/>
-      <c r="D982" s="27"/>
+      <c r="D982" s="25"/>
       <c r="E982" s="7"/>
     </row>
     <row r="983" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="7"/>
-      <c r="D983" s="27"/>
+      <c r="D983" s="25"/>
       <c r="E983" s="7"/>
     </row>
     <row r="984" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="7"/>
-      <c r="D984" s="27"/>
+      <c r="D984" s="25"/>
       <c r="E984" s="7"/>
     </row>
     <row r="985" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="7"/>
-      <c r="D985" s="27"/>
+      <c r="D985" s="25"/>
       <c r="E985" s="7"/>
     </row>
     <row r="986" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="7"/>
-      <c r="D986" s="27"/>
+      <c r="D986" s="25"/>
       <c r="E986" s="7"/>
     </row>
     <row r="987" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="7"/>
-      <c r="D987" s="27"/>
+      <c r="D987" s="25"/>
       <c r="E987" s="7"/>
     </row>
     <row r="988" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="7"/>
-      <c r="D988" s="27"/>
+      <c r="D988" s="25"/>
       <c r="E988" s="7"/>
     </row>
     <row r="989" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="7"/>
-      <c r="D989" s="27"/>
+      <c r="D989" s="25"/>
       <c r="E989" s="7"/>
     </row>
     <row r="990" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="7"/>
-      <c r="D990" s="27"/>
+      <c r="D990" s="25"/>
       <c r="E990" s="7"/>
     </row>
     <row r="991" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="7"/>
-      <c r="D991" s="27"/>
+      <c r="D991" s="25"/>
       <c r="E991" s="7"/>
     </row>
     <row r="992" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="7"/>
-      <c r="D992" s="27"/>
+      <c r="D992" s="25"/>
       <c r="E992" s="7"/>
     </row>
     <row r="993" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="7"/>
-      <c r="D993" s="27"/>
+      <c r="D993" s="25"/>
       <c r="E993" s="7"/>
     </row>
     <row r="994" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="7"/>
-      <c r="D994" s="27"/>
+      <c r="D994" s="25"/>
       <c r="E994" s="7"/>
     </row>
     <row r="995" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="7"/>
-      <c r="D995" s="27"/>
+      <c r="D995" s="25"/>
       <c r="E995" s="7"/>
     </row>
     <row r="996" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="7"/>
-      <c r="D996" s="27"/>
+      <c r="D996" s="25"/>
       <c r="E996" s="7"/>
     </row>
     <row r="997" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="7"/>
-      <c r="D997" s="27"/>
+      <c r="D997" s="25"/>
       <c r="E997" s="7"/>
     </row>
     <row r="998" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="7"/>
-      <c r="D998" s="27"/>
+      <c r="D998" s="25"/>
       <c r="E998" s="7"/>
     </row>
     <row r="999" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="7"/>
-      <c r="D999" s="27"/>
+      <c r="D999" s="25"/>
       <c r="E999" s="7"/>
     </row>
     <row r="1000" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="7"/>
-      <c r="D1000" s="27"/>
+      <c r="D1000" s="25"/>
       <c r="E1000" s="7"/>
     </row>
     <row r="1001" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="7"/>
-      <c r="D1001" s="27"/>
+      <c r="D1001" s="25"/>
       <c r="E1001" s="7"/>
     </row>
     <row r="1002" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="7"/>
-      <c r="D1002" s="27"/>
+      <c r="D1002" s="25"/>
       <c r="E1002" s="7"/>
     </row>
     <row r="1003" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="7"/>
-      <c r="D1003" s="27"/>
+      <c r="D1003" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
